--- a/data-migration/xlsx_1900-/1922_Sommer.xlsx
+++ b/data-migration/xlsx_1900-/1922_Sommer.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="W:\TEMP REPOSITORY\VVZ 1833-2014\_XLSX_2024-05-22\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Y:\TEMP REPOSITORY\VVZ 1833-2014\_XLSX_2024-05-22\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC9A1B73-9B9B-411B-AE78-7979FBF4E34C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A2206FE-ED5D-4AB2-BD12-BAB4D4E71B7D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="16860" yWindow="-20280" windowWidth="27315" windowHeight="19110" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3507" uniqueCount="1479">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3507" uniqueCount="1480">
   <si>
     <t>Sommer</t>
   </si>
@@ -4292,9 +4292,6 @@
     <t>vontuhr_a</t>
   </si>
   <si>
-    <t>escher_a</t>
-  </si>
-  <si>
     <t>pfenninger_hf</t>
   </si>
   <si>
@@ -4322,18 +4319,12 @@
     <t>wolfer_p</t>
   </si>
   <si>
-    <t>walthard _m</t>
-  </si>
-  <si>
     <t>meyerrueegg_h</t>
   </si>
   <si>
     <t>meyerwirz_e</t>
   </si>
   <si>
-    <t>anderes _e</t>
-  </si>
-  <si>
     <t>sidlerhuguenin_e</t>
   </si>
   <si>
@@ -4346,9 +4337,6 @@
     <t>silberschmidt _w</t>
   </si>
   <si>
-    <t>nager _fr</t>
-  </si>
-  <si>
     <t>heusser_h</t>
   </si>
   <si>
@@ -4470,6 +4458,21 @@
   </si>
   <si>
     <t>graenacher_c</t>
+  </si>
+  <si>
+    <t>escher_a2</t>
+  </si>
+  <si>
+    <t>TP</t>
+  </si>
+  <si>
+    <t>walthard_m</t>
+  </si>
+  <si>
+    <t>anderes_e</t>
+  </si>
+  <si>
+    <t>nager_fr</t>
   </si>
 </sst>
 </file>
@@ -4819,8 +4822,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N488"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C383" workbookViewId="0">
-      <selection activeCell="O419" sqref="O419"/>
+    <sheetView tabSelected="1" topLeftCell="E157" workbookViewId="0">
+      <selection activeCell="H173" sqref="H173"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4854,7 +4857,7 @@
         <v>1416</v>
       </c>
       <c r="I1" t="s">
-        <v>1468</v>
+        <v>1464</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
@@ -4877,10 +4880,10 @@
         <v>980</v>
       </c>
       <c r="H2" t="s">
-        <v>1450</v>
+        <v>1446</v>
       </c>
       <c r="I2" t="s">
-        <v>1469</v>
+        <v>1465</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
@@ -4906,10 +4909,10 @@
         <v>1304</v>
       </c>
       <c r="I3" t="s">
-        <v>1468</v>
+        <v>1464</v>
       </c>
       <c r="J3" t="s">
-        <v>1470</v>
+        <v>1466</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
@@ -4932,10 +4935,10 @@
         <v>982</v>
       </c>
       <c r="H4" t="s">
-        <v>1450</v>
+        <v>1446</v>
       </c>
       <c r="I4" t="s">
-        <v>1469</v>
+        <v>1465</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
@@ -4958,10 +4961,10 @@
         <v>983</v>
       </c>
       <c r="H5" t="s">
-        <v>1450</v>
+        <v>1446</v>
       </c>
       <c r="I5" t="s">
-        <v>1469</v>
+        <v>1465</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
@@ -4987,7 +4990,7 @@
         <v>1305</v>
       </c>
       <c r="I6" t="s">
-        <v>1468</v>
+        <v>1464</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
@@ -5013,7 +5016,7 @@
         <v>1306</v>
       </c>
       <c r="I7" t="s">
-        <v>1465</v>
+        <v>1476</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
@@ -5039,7 +5042,7 @@
         <v>1305</v>
       </c>
       <c r="I8" t="s">
-        <v>1468</v>
+        <v>1464</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
@@ -5062,10 +5065,10 @@
         <v>987</v>
       </c>
       <c r="H9" t="s">
-        <v>1450</v>
+        <v>1446</v>
       </c>
       <c r="I9" t="s">
-        <v>1469</v>
+        <v>1465</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
@@ -5091,7 +5094,7 @@
         <v>1306</v>
       </c>
       <c r="I10" t="s">
-        <v>1465</v>
+        <v>1476</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
@@ -5114,10 +5117,10 @@
         <v>989</v>
       </c>
       <c r="H11" t="s">
-        <v>1451</v>
+        <v>1447</v>
       </c>
       <c r="I11" t="s">
-        <v>1468</v>
+        <v>1464</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.3">
@@ -5140,10 +5143,10 @@
         <v>990</v>
       </c>
       <c r="H12" t="s">
-        <v>1451</v>
+        <v>1447</v>
       </c>
       <c r="I12" t="s">
-        <v>1468</v>
+        <v>1464</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.3">
@@ -5169,7 +5172,7 @@
         <v>1303</v>
       </c>
       <c r="I13" t="s">
-        <v>1468</v>
+        <v>1464</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.3">
@@ -5195,7 +5198,7 @@
         <v>1303</v>
       </c>
       <c r="I14" t="s">
-        <v>1468</v>
+        <v>1464</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.3">
@@ -5221,7 +5224,7 @@
         <v>1417</v>
       </c>
       <c r="I15" t="s">
-        <v>1465</v>
+        <v>1461</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.3">
@@ -5247,7 +5250,7 @@
         <v>1416</v>
       </c>
       <c r="I16" t="s">
-        <v>1468</v>
+        <v>1464</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.3">
@@ -5270,10 +5273,10 @@
         <v>995</v>
       </c>
       <c r="H17" t="s">
-        <v>1451</v>
+        <v>1447</v>
       </c>
       <c r="I17" t="s">
-        <v>1468</v>
+        <v>1464</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.3">
@@ -5299,10 +5302,10 @@
         <v>1304</v>
       </c>
       <c r="I18" t="s">
-        <v>1468</v>
+        <v>1464</v>
       </c>
       <c r="J18" t="s">
-        <v>1470</v>
+        <v>1466</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.3">
@@ -5328,10 +5331,10 @@
         <v>1304</v>
       </c>
       <c r="I19" t="s">
-        <v>1468</v>
+        <v>1464</v>
       </c>
       <c r="J19" t="s">
-        <v>1470</v>
+        <v>1466</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.3">
@@ -5357,7 +5360,7 @@
         <v>1305</v>
       </c>
       <c r="I20" t="s">
-        <v>1468</v>
+        <v>1464</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.3">
@@ -5380,10 +5383,10 @@
         <v>999</v>
       </c>
       <c r="H21" t="s">
-        <v>1451</v>
+        <v>1447</v>
       </c>
       <c r="I21" t="s">
-        <v>1468</v>
+        <v>1464</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.3">
@@ -5409,7 +5412,7 @@
         <v>1303</v>
       </c>
       <c r="I22" t="s">
-        <v>1468</v>
+        <v>1464</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.3">
@@ -5432,10 +5435,10 @@
         <v>1001</v>
       </c>
       <c r="H23" t="s">
-        <v>1451</v>
+        <v>1447</v>
       </c>
       <c r="I23" t="s">
-        <v>1468</v>
+        <v>1464</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.3">
@@ -5461,7 +5464,7 @@
         <v>1416</v>
       </c>
       <c r="I24" t="s">
-        <v>1468</v>
+        <v>1464</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.3">
@@ -5487,7 +5490,7 @@
         <v>1418</v>
       </c>
       <c r="I25" t="s">
-        <v>1468</v>
+        <v>1464</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.3">
@@ -5513,10 +5516,10 @@
         <v>1307</v>
       </c>
       <c r="I26" t="s">
-        <v>1468</v>
+        <v>1464</v>
       </c>
       <c r="J26" t="s">
-        <v>1470</v>
+        <v>1466</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.3">
@@ -5542,10 +5545,10 @@
         <v>1307</v>
       </c>
       <c r="I27" t="s">
-        <v>1468</v>
+        <v>1464</v>
       </c>
       <c r="J27" t="s">
-        <v>1470</v>
+        <v>1466</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.3">
@@ -5571,7 +5574,7 @@
         <v>1308</v>
       </c>
       <c r="I28" t="s">
-        <v>1468</v>
+        <v>1464</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.3">
@@ -5597,7 +5600,7 @@
         <v>1418</v>
       </c>
       <c r="I29" t="s">
-        <v>1468</v>
+        <v>1464</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.3">
@@ -5620,10 +5623,10 @@
         <v>1008</v>
       </c>
       <c r="H30" t="s">
-        <v>1419</v>
+        <v>1475</v>
       </c>
       <c r="I30" t="s">
-        <v>1465</v>
+        <v>1461</v>
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.3">
@@ -5649,7 +5652,7 @@
         <v>1308</v>
       </c>
       <c r="I31" t="s">
-        <v>1468</v>
+        <v>1464</v>
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.3">
@@ -5675,7 +5678,7 @@
         <v>1310</v>
       </c>
       <c r="I32" t="s">
-        <v>1469</v>
+        <v>1465</v>
       </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.3">
@@ -5701,7 +5704,7 @@
         <v>1310</v>
       </c>
       <c r="I33" t="s">
-        <v>1469</v>
+        <v>1465</v>
       </c>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.3">
@@ -5727,10 +5730,10 @@
         <v>1311</v>
       </c>
       <c r="I34" t="s">
-        <v>1468</v>
+        <v>1464</v>
       </c>
       <c r="J34" t="s">
-        <v>1474</v>
+        <v>1470</v>
       </c>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.3">
@@ -5756,10 +5759,10 @@
         <v>1311</v>
       </c>
       <c r="I35" t="s">
-        <v>1468</v>
+        <v>1464</v>
       </c>
       <c r="J35" t="s">
-        <v>1474</v>
+        <v>1470</v>
       </c>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.3">
@@ -5785,7 +5788,7 @@
         <v>1312</v>
       </c>
       <c r="I36" t="s">
-        <v>1471</v>
+        <v>1467</v>
       </c>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.3">
@@ -5808,10 +5811,10 @@
         <v>1014</v>
       </c>
       <c r="H37" t="s">
-        <v>1420</v>
+        <v>1419</v>
       </c>
       <c r="I37" t="s">
-        <v>1465</v>
+        <v>1461</v>
       </c>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.3">
@@ -5837,7 +5840,7 @@
         <v>1314</v>
       </c>
       <c r="I38" t="s">
-        <v>1468</v>
+        <v>1464</v>
       </c>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.3">
@@ -5863,7 +5866,7 @@
         <v>1315</v>
       </c>
       <c r="I39" t="s">
-        <v>1468</v>
+        <v>1464</v>
       </c>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.3">
@@ -5889,7 +5892,7 @@
         <v>1316</v>
       </c>
       <c r="I40" t="s">
-        <v>1465</v>
+        <v>1461</v>
       </c>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.3">
@@ -5915,7 +5918,7 @@
         <v>1315</v>
       </c>
       <c r="I41" t="s">
-        <v>1468</v>
+        <v>1464</v>
       </c>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.3">
@@ -5941,7 +5944,7 @@
         <v>1317</v>
       </c>
       <c r="I42" t="s">
-        <v>1465</v>
+        <v>1461</v>
       </c>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.3">
@@ -5967,7 +5970,7 @@
         <v>1318</v>
       </c>
       <c r="I43" t="s">
-        <v>1469</v>
+        <v>1465</v>
       </c>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.3">
@@ -5993,7 +5996,7 @@
         <v>1319</v>
       </c>
       <c r="I44" t="s">
-        <v>1468</v>
+        <v>1464</v>
       </c>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.3">
@@ -6019,7 +6022,7 @@
         <v>1318</v>
       </c>
       <c r="I45" t="s">
-        <v>1469</v>
+        <v>1465</v>
       </c>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.3">
@@ -6042,10 +6045,10 @@
         <v>1023</v>
       </c>
       <c r="H46" t="s">
-        <v>1421</v>
+        <v>1420</v>
       </c>
       <c r="I46" t="s">
-        <v>1468</v>
+        <v>1464</v>
       </c>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.3">
@@ -6068,10 +6071,10 @@
         <v>1024</v>
       </c>
       <c r="H47" t="s">
-        <v>1422</v>
+        <v>1421</v>
       </c>
       <c r="I47" t="s">
-        <v>1471</v>
+        <v>1467</v>
       </c>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.3">
@@ -6097,7 +6100,7 @@
         <v>1322</v>
       </c>
       <c r="I48" t="s">
-        <v>1465</v>
+        <v>1461</v>
       </c>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.3">
@@ -6123,7 +6126,7 @@
         <v>1323</v>
       </c>
       <c r="I49" t="s">
-        <v>1468</v>
+        <v>1464</v>
       </c>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.3">
@@ -6149,7 +6152,7 @@
         <v>1323</v>
       </c>
       <c r="I50" t="s">
-        <v>1468</v>
+        <v>1464</v>
       </c>
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.3">
@@ -6175,7 +6178,7 @@
         <v>1324</v>
       </c>
       <c r="I51" t="s">
-        <v>1467</v>
+        <v>1463</v>
       </c>
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.3">
@@ -6198,10 +6201,10 @@
         <v>1006</v>
       </c>
       <c r="H52" t="s">
-        <v>1421</v>
+        <v>1420</v>
       </c>
       <c r="I52" t="s">
-        <v>1468</v>
+        <v>1464</v>
       </c>
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.3">
@@ -6227,7 +6230,7 @@
         <v>1325</v>
       </c>
       <c r="I53" t="s">
-        <v>1468</v>
+        <v>1464</v>
       </c>
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.3">
@@ -6253,7 +6256,7 @@
         <v>1325</v>
       </c>
       <c r="I54" t="s">
-        <v>1468</v>
+        <v>1464</v>
       </c>
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.3">
@@ -6279,7 +6282,7 @@
         <v>1326</v>
       </c>
       <c r="I55" t="s">
-        <v>1465</v>
+        <v>1461</v>
       </c>
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.3">
@@ -6305,7 +6308,7 @@
         <v>1418</v>
       </c>
       <c r="I56" t="s">
-        <v>1468</v>
+        <v>1464</v>
       </c>
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.3">
@@ -6331,10 +6334,10 @@
         <v>1307</v>
       </c>
       <c r="I57" t="s">
-        <v>1468</v>
+        <v>1464</v>
       </c>
       <c r="J57" t="s">
-        <v>1470</v>
+        <v>1466</v>
       </c>
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.3">
@@ -6360,7 +6363,7 @@
         <v>1308</v>
       </c>
       <c r="I58" t="s">
-        <v>1468</v>
+        <v>1464</v>
       </c>
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.3">
@@ -6383,10 +6386,10 @@
         <v>1019</v>
       </c>
       <c r="H59" t="s">
-        <v>1419</v>
+        <v>1475</v>
       </c>
       <c r="I59" t="s">
-        <v>1465</v>
+        <v>1461</v>
       </c>
     </row>
     <row r="60" spans="1:10" x14ac:dyDescent="0.3">
@@ -6412,10 +6415,10 @@
         <v>1311</v>
       </c>
       <c r="I60" t="s">
-        <v>1468</v>
+        <v>1464</v>
       </c>
       <c r="J60" t="s">
-        <v>1474</v>
+        <v>1470</v>
       </c>
     </row>
     <row r="61" spans="1:10" x14ac:dyDescent="0.3">
@@ -6441,7 +6444,7 @@
         <v>1314</v>
       </c>
       <c r="I61" t="s">
-        <v>1468</v>
+        <v>1464</v>
       </c>
     </row>
     <row r="62" spans="1:10" x14ac:dyDescent="0.3">
@@ -6467,7 +6470,7 @@
         <v>1315</v>
       </c>
       <c r="I62" t="s">
-        <v>1468</v>
+        <v>1464</v>
       </c>
     </row>
     <row r="63" spans="1:10" x14ac:dyDescent="0.3">
@@ -6493,7 +6496,7 @@
         <v>1319</v>
       </c>
       <c r="I63" t="s">
-        <v>1468</v>
+        <v>1464</v>
       </c>
     </row>
     <row r="64" spans="1:10" x14ac:dyDescent="0.3">
@@ -6519,7 +6522,7 @@
         <v>1319</v>
       </c>
       <c r="I64" t="s">
-        <v>1468</v>
+        <v>1464</v>
       </c>
     </row>
     <row r="65" spans="1:14" x14ac:dyDescent="0.3">
@@ -6545,7 +6548,7 @@
         <v>1323</v>
       </c>
       <c r="I65" t="s">
-        <v>1468</v>
+        <v>1464</v>
       </c>
     </row>
     <row r="66" spans="1:14" x14ac:dyDescent="0.3">
@@ -6571,7 +6574,7 @@
         <v>1318</v>
       </c>
       <c r="I66" t="s">
-        <v>1469</v>
+        <v>1465</v>
       </c>
     </row>
     <row r="67" spans="1:14" x14ac:dyDescent="0.3">
@@ -6597,7 +6600,7 @@
         <v>1322</v>
       </c>
       <c r="I67" t="s">
-        <v>1465</v>
+        <v>1461</v>
       </c>
     </row>
     <row r="68" spans="1:14" x14ac:dyDescent="0.3">
@@ -6623,7 +6626,7 @@
         <v>1324</v>
       </c>
       <c r="I68" t="s">
-        <v>1467</v>
+        <v>1463</v>
       </c>
     </row>
     <row r="69" spans="1:14" x14ac:dyDescent="0.3">
@@ -6646,10 +6649,10 @@
         <v>1039</v>
       </c>
       <c r="H69" t="s">
-        <v>1421</v>
+        <v>1420</v>
       </c>
       <c r="I69" t="s">
-        <v>1468</v>
+        <v>1464</v>
       </c>
     </row>
     <row r="70" spans="1:14" x14ac:dyDescent="0.3">
@@ -6675,7 +6678,7 @@
         <v>1325</v>
       </c>
       <c r="I70" t="s">
-        <v>1468</v>
+        <v>1464</v>
       </c>
     </row>
     <row r="71" spans="1:14" x14ac:dyDescent="0.3">
@@ -6701,7 +6704,7 @@
         <v>1325</v>
       </c>
       <c r="I71" t="s">
-        <v>1468</v>
+        <v>1464</v>
       </c>
     </row>
     <row r="72" spans="1:14" x14ac:dyDescent="0.3">
@@ -6727,7 +6730,7 @@
         <v>1325</v>
       </c>
       <c r="I72" t="s">
-        <v>1468</v>
+        <v>1464</v>
       </c>
     </row>
     <row r="73" spans="1:14" x14ac:dyDescent="0.3">
@@ -6756,7 +6759,7 @@
         <v>1327</v>
       </c>
       <c r="I73" t="s">
-        <v>1468</v>
+        <v>1464</v>
       </c>
     </row>
     <row r="74" spans="1:14" x14ac:dyDescent="0.3">
@@ -6782,7 +6785,7 @@
         <v>1327</v>
       </c>
       <c r="I74" t="s">
-        <v>1468</v>
+        <v>1464</v>
       </c>
     </row>
     <row r="75" spans="1:14" x14ac:dyDescent="0.3">
@@ -6808,19 +6811,19 @@
         <v>1327</v>
       </c>
       <c r="I75" t="s">
-        <v>1468</v>
+        <v>1464</v>
       </c>
       <c r="K75" t="s">
-        <v>1452</v>
+        <v>1448</v>
       </c>
       <c r="L75" t="s">
-        <v>1465</v>
+        <v>1461</v>
       </c>
       <c r="M75" t="s">
         <v>1329</v>
       </c>
       <c r="N75" t="s">
-        <v>1465</v>
+        <v>1461</v>
       </c>
     </row>
     <row r="76" spans="1:14" x14ac:dyDescent="0.3">
@@ -6846,19 +6849,19 @@
         <v>1327</v>
       </c>
       <c r="I76" t="s">
-        <v>1468</v>
+        <v>1464</v>
       </c>
       <c r="K76" t="s">
-        <v>1452</v>
+        <v>1448</v>
       </c>
       <c r="L76" t="s">
-        <v>1465</v>
+        <v>1461</v>
       </c>
       <c r="M76" t="s">
         <v>1329</v>
       </c>
       <c r="N76" t="s">
-        <v>1465</v>
+        <v>1461</v>
       </c>
     </row>
     <row r="77" spans="1:14" x14ac:dyDescent="0.3">
@@ -6884,13 +6887,13 @@
         <v>1327</v>
       </c>
       <c r="I77" t="s">
-        <v>1468</v>
+        <v>1464</v>
       </c>
       <c r="K77" t="s">
         <v>1328</v>
       </c>
       <c r="L77" t="s">
-        <v>1468</v>
+        <v>1464</v>
       </c>
     </row>
     <row r="78" spans="1:14" x14ac:dyDescent="0.3">
@@ -6916,7 +6919,7 @@
         <v>1327</v>
       </c>
       <c r="I78" t="s">
-        <v>1468</v>
+        <v>1464</v>
       </c>
     </row>
     <row r="79" spans="1:14" x14ac:dyDescent="0.3">
@@ -6942,7 +6945,7 @@
         <v>1329</v>
       </c>
       <c r="I79" t="s">
-        <v>1465</v>
+        <v>1461</v>
       </c>
     </row>
     <row r="80" spans="1:14" x14ac:dyDescent="0.3">
@@ -6968,7 +6971,7 @@
         <v>1329</v>
       </c>
       <c r="I80" t="s">
-        <v>1465</v>
+        <v>1461</v>
       </c>
     </row>
     <row r="81" spans="1:10" x14ac:dyDescent="0.3">
@@ -6991,10 +6994,10 @@
         <v>1051</v>
       </c>
       <c r="H81" t="s">
-        <v>1452</v>
+        <v>1448</v>
       </c>
       <c r="I81" t="s">
-        <v>1465</v>
+        <v>1461</v>
       </c>
     </row>
     <row r="82" spans="1:10" x14ac:dyDescent="0.3">
@@ -7017,10 +7020,10 @@
         <v>1052</v>
       </c>
       <c r="H82" t="s">
-        <v>1453</v>
+        <v>1449</v>
       </c>
       <c r="I82" t="s">
-        <v>1469</v>
+        <v>1465</v>
       </c>
     </row>
     <row r="83" spans="1:10" x14ac:dyDescent="0.3">
@@ -7043,10 +7046,10 @@
         <v>995</v>
       </c>
       <c r="H83" t="s">
-        <v>1453</v>
+        <v>1449</v>
       </c>
       <c r="I83" t="s">
-        <v>1469</v>
+        <v>1465</v>
       </c>
     </row>
     <row r="84" spans="1:10" x14ac:dyDescent="0.3">
@@ -7069,10 +7072,10 @@
         <v>1053</v>
       </c>
       <c r="H84" t="s">
-        <v>1453</v>
+        <v>1449</v>
       </c>
       <c r="I84" t="s">
-        <v>1469</v>
+        <v>1465</v>
       </c>
     </row>
     <row r="85" spans="1:10" x14ac:dyDescent="0.3">
@@ -7095,10 +7098,10 @@
         <v>1054</v>
       </c>
       <c r="H85" t="s">
-        <v>1453</v>
+        <v>1449</v>
       </c>
       <c r="I85" t="s">
-        <v>1469</v>
+        <v>1465</v>
       </c>
     </row>
     <row r="86" spans="1:10" x14ac:dyDescent="0.3">
@@ -7124,7 +7127,7 @@
         <v>1330</v>
       </c>
       <c r="I86" t="s">
-        <v>1465</v>
+        <v>1461</v>
       </c>
     </row>
     <row r="87" spans="1:10" x14ac:dyDescent="0.3">
@@ -7147,13 +7150,13 @@
         <v>1015</v>
       </c>
       <c r="H87" t="s">
-        <v>1454</v>
+        <v>1450</v>
       </c>
       <c r="I87" t="s">
-        <v>1468</v>
+        <v>1464</v>
       </c>
       <c r="J87" t="s">
-        <v>1470</v>
+        <v>1466</v>
       </c>
     </row>
     <row r="88" spans="1:10" x14ac:dyDescent="0.3">
@@ -7176,13 +7179,13 @@
         <v>1056</v>
       </c>
       <c r="H88" t="s">
-        <v>1454</v>
+        <v>1450</v>
       </c>
       <c r="I88" t="s">
-        <v>1468</v>
+        <v>1464</v>
       </c>
       <c r="J88" t="s">
-        <v>1470</v>
+        <v>1466</v>
       </c>
     </row>
     <row r="89" spans="1:10" x14ac:dyDescent="0.3">
@@ -7205,13 +7208,13 @@
         <v>1057</v>
       </c>
       <c r="H89" t="s">
-        <v>1454</v>
+        <v>1450</v>
       </c>
       <c r="I89" t="s">
-        <v>1468</v>
+        <v>1464</v>
       </c>
       <c r="J89" t="s">
-        <v>1470</v>
+        <v>1466</v>
       </c>
     </row>
     <row r="90" spans="1:10" x14ac:dyDescent="0.3">
@@ -7234,10 +7237,10 @@
         <v>1058</v>
       </c>
       <c r="H90" t="s">
-        <v>1423</v>
+        <v>1422</v>
       </c>
       <c r="I90" t="s">
-        <v>1465</v>
+        <v>1461</v>
       </c>
     </row>
     <row r="91" spans="1:10" x14ac:dyDescent="0.3">
@@ -7260,10 +7263,10 @@
         <v>1026</v>
       </c>
       <c r="H91" t="s">
-        <v>1423</v>
+        <v>1422</v>
       </c>
       <c r="I91" t="s">
-        <v>1465</v>
+        <v>1461</v>
       </c>
     </row>
     <row r="92" spans="1:10" x14ac:dyDescent="0.3">
@@ -7289,7 +7292,7 @@
         <v>1332</v>
       </c>
       <c r="I92" t="s">
-        <v>1468</v>
+        <v>1464</v>
       </c>
     </row>
     <row r="93" spans="1:10" x14ac:dyDescent="0.3">
@@ -7315,7 +7318,7 @@
         <v>1332</v>
       </c>
       <c r="I93" t="s">
-        <v>1468</v>
+        <v>1464</v>
       </c>
     </row>
     <row r="94" spans="1:10" x14ac:dyDescent="0.3">
@@ -7341,7 +7344,7 @@
         <v>1332</v>
       </c>
       <c r="I94" t="s">
-        <v>1468</v>
+        <v>1464</v>
       </c>
     </row>
     <row r="95" spans="1:10" x14ac:dyDescent="0.3">
@@ -7367,7 +7370,7 @@
         <v>1332</v>
       </c>
       <c r="I95" t="s">
-        <v>1468</v>
+        <v>1464</v>
       </c>
     </row>
     <row r="96" spans="1:10" x14ac:dyDescent="0.3">
@@ -7393,7 +7396,7 @@
         <v>1332</v>
       </c>
       <c r="I96" t="s">
-        <v>1468</v>
+        <v>1464</v>
       </c>
     </row>
     <row r="97" spans="1:12" x14ac:dyDescent="0.3">
@@ -7419,7 +7422,7 @@
         <v>1332</v>
       </c>
       <c r="I97" t="s">
-        <v>1468</v>
+        <v>1464</v>
       </c>
     </row>
     <row r="98" spans="1:12" x14ac:dyDescent="0.3">
@@ -7442,10 +7445,10 @@
         <v>1065</v>
       </c>
       <c r="H98" t="s">
-        <v>1424</v>
+        <v>1423</v>
       </c>
       <c r="I98" t="s">
-        <v>1468</v>
+        <v>1464</v>
       </c>
     </row>
     <row r="99" spans="1:12" x14ac:dyDescent="0.3">
@@ -7468,16 +7471,16 @@
         <v>1066</v>
       </c>
       <c r="H99" t="s">
-        <v>1424</v>
+        <v>1423</v>
       </c>
       <c r="I99" t="s">
-        <v>1468</v>
+        <v>1464</v>
       </c>
       <c r="K99" t="s">
-        <v>1475</v>
+        <v>1471</v>
       </c>
       <c r="L99" t="s">
-        <v>1467</v>
+        <v>1463</v>
       </c>
     </row>
     <row r="100" spans="1:12" x14ac:dyDescent="0.3">
@@ -7500,10 +7503,10 @@
         <v>1067</v>
       </c>
       <c r="H100" t="s">
-        <v>1424</v>
+        <v>1423</v>
       </c>
       <c r="I100" t="s">
-        <v>1468</v>
+        <v>1464</v>
       </c>
     </row>
     <row r="101" spans="1:12" x14ac:dyDescent="0.3">
@@ -7526,10 +7529,10 @@
         <v>1068</v>
       </c>
       <c r="H101" t="s">
-        <v>1425</v>
+        <v>1424</v>
       </c>
       <c r="I101" t="s">
-        <v>1468</v>
+        <v>1464</v>
       </c>
     </row>
     <row r="102" spans="1:12" x14ac:dyDescent="0.3">
@@ -7552,10 +7555,10 @@
         <v>1069</v>
       </c>
       <c r="H102" t="s">
-        <v>1425</v>
+        <v>1424</v>
       </c>
       <c r="I102" t="s">
-        <v>1468</v>
+        <v>1464</v>
       </c>
     </row>
     <row r="103" spans="1:12" x14ac:dyDescent="0.3">
@@ -7578,10 +7581,10 @@
         <v>1070</v>
       </c>
       <c r="H103" t="s">
-        <v>1426</v>
+        <v>1425</v>
       </c>
       <c r="I103" t="s">
-        <v>1469</v>
+        <v>1465</v>
       </c>
     </row>
     <row r="104" spans="1:12" x14ac:dyDescent="0.3">
@@ -7604,10 +7607,10 @@
         <v>1069</v>
       </c>
       <c r="H104" t="s">
-        <v>1426</v>
+        <v>1425</v>
       </c>
       <c r="I104" t="s">
-        <v>1469</v>
+        <v>1465</v>
       </c>
     </row>
     <row r="105" spans="1:12" x14ac:dyDescent="0.3">
@@ -7630,10 +7633,10 @@
         <v>1071</v>
       </c>
       <c r="H105" t="s">
-        <v>1427</v>
+        <v>1426</v>
       </c>
       <c r="I105" t="s">
-        <v>1468</v>
+        <v>1464</v>
       </c>
     </row>
     <row r="106" spans="1:12" x14ac:dyDescent="0.3">
@@ -7656,10 +7659,10 @@
         <v>1072</v>
       </c>
       <c r="H106" t="s">
-        <v>1427</v>
+        <v>1426</v>
       </c>
       <c r="I106" t="s">
-        <v>1468</v>
+        <v>1464</v>
       </c>
     </row>
     <row r="107" spans="1:12" x14ac:dyDescent="0.3">
@@ -7682,10 +7685,10 @@
         <v>1073</v>
       </c>
       <c r="H107" t="s">
-        <v>1456</v>
+        <v>1452</v>
       </c>
       <c r="I107" t="s">
-        <v>1465</v>
+        <v>1461</v>
       </c>
     </row>
     <row r="108" spans="1:12" x14ac:dyDescent="0.3">
@@ -7711,7 +7714,7 @@
         <v>1333</v>
       </c>
       <c r="I108" t="s">
-        <v>1465</v>
+        <v>1461</v>
       </c>
     </row>
     <row r="109" spans="1:12" x14ac:dyDescent="0.3">
@@ -7737,7 +7740,7 @@
         <v>1333</v>
       </c>
       <c r="I109" t="s">
-        <v>1465</v>
+        <v>1461</v>
       </c>
     </row>
     <row r="110" spans="1:12" x14ac:dyDescent="0.3">
@@ -7763,7 +7766,7 @@
         <v>1334</v>
       </c>
       <c r="I110" t="s">
-        <v>1465</v>
+        <v>1461</v>
       </c>
     </row>
     <row r="111" spans="1:12" x14ac:dyDescent="0.3">
@@ -7789,7 +7792,7 @@
         <v>1334</v>
       </c>
       <c r="I111" t="s">
-        <v>1465</v>
+        <v>1461</v>
       </c>
     </row>
     <row r="112" spans="1:12" x14ac:dyDescent="0.3">
@@ -7815,7 +7818,7 @@
         <v>1334</v>
       </c>
       <c r="I112" t="s">
-        <v>1465</v>
+        <v>1461</v>
       </c>
     </row>
     <row r="113" spans="1:12" x14ac:dyDescent="0.3">
@@ -7841,7 +7844,7 @@
         <v>1335</v>
       </c>
       <c r="I113" t="s">
-        <v>1465</v>
+        <v>1461</v>
       </c>
     </row>
     <row r="114" spans="1:12" x14ac:dyDescent="0.3">
@@ -7867,7 +7870,7 @@
         <v>1335</v>
       </c>
       <c r="I114" t="s">
-        <v>1465</v>
+        <v>1461</v>
       </c>
     </row>
     <row r="115" spans="1:12" x14ac:dyDescent="0.3">
@@ -7893,7 +7896,7 @@
         <v>1335</v>
       </c>
       <c r="I115" t="s">
-        <v>1465</v>
+        <v>1461</v>
       </c>
     </row>
     <row r="116" spans="1:12" x14ac:dyDescent="0.3">
@@ -7916,10 +7919,10 @@
         <v>983</v>
       </c>
       <c r="H116" t="s">
-        <v>1455</v>
+        <v>1451</v>
       </c>
       <c r="I116" t="s">
-        <v>1465</v>
+        <v>1461</v>
       </c>
     </row>
     <row r="117" spans="1:12" x14ac:dyDescent="0.3">
@@ -7942,10 +7945,10 @@
         <v>1079</v>
       </c>
       <c r="H117" t="s">
-        <v>1455</v>
+        <v>1451</v>
       </c>
       <c r="I117" t="s">
-        <v>1465</v>
+        <v>1461</v>
       </c>
     </row>
     <row r="118" spans="1:12" x14ac:dyDescent="0.3">
@@ -7968,10 +7971,10 @@
         <v>1080</v>
       </c>
       <c r="H118" t="s">
-        <v>1428</v>
+        <v>1427</v>
       </c>
       <c r="I118" t="s">
-        <v>1465</v>
+        <v>1461</v>
       </c>
     </row>
     <row r="119" spans="1:12" x14ac:dyDescent="0.3">
@@ -7997,7 +8000,7 @@
         <v>1337</v>
       </c>
       <c r="I119" t="s">
-        <v>1465</v>
+        <v>1461</v>
       </c>
     </row>
     <row r="120" spans="1:12" x14ac:dyDescent="0.3">
@@ -8023,7 +8026,7 @@
         <v>1337</v>
       </c>
       <c r="I120" t="s">
-        <v>1465</v>
+        <v>1461</v>
       </c>
     </row>
     <row r="121" spans="1:12" x14ac:dyDescent="0.3">
@@ -8049,7 +8052,7 @@
         <v>1328</v>
       </c>
       <c r="I121" t="s">
-        <v>1468</v>
+        <v>1464</v>
       </c>
     </row>
     <row r="122" spans="1:12" x14ac:dyDescent="0.3">
@@ -8075,13 +8078,13 @@
         <v>1328</v>
       </c>
       <c r="I122" t="s">
-        <v>1468</v>
+        <v>1464</v>
       </c>
       <c r="K122" t="s">
         <v>1338</v>
       </c>
       <c r="L122" t="s">
-        <v>1465</v>
+        <v>1461</v>
       </c>
     </row>
     <row r="123" spans="1:12" x14ac:dyDescent="0.3">
@@ -8107,13 +8110,13 @@
         <v>1328</v>
       </c>
       <c r="I123" t="s">
-        <v>1468</v>
+        <v>1464</v>
       </c>
       <c r="K123" t="s">
         <v>1327</v>
       </c>
       <c r="L123" t="s">
-        <v>1468</v>
+        <v>1464</v>
       </c>
     </row>
     <row r="124" spans="1:12" x14ac:dyDescent="0.3">
@@ -8139,7 +8142,7 @@
         <v>1328</v>
       </c>
       <c r="I124" t="s">
-        <v>1468</v>
+        <v>1464</v>
       </c>
     </row>
     <row r="125" spans="1:12" x14ac:dyDescent="0.3">
@@ -8165,7 +8168,7 @@
         <v>1338</v>
       </c>
       <c r="I125" t="s">
-        <v>1465</v>
+        <v>1461</v>
       </c>
     </row>
     <row r="126" spans="1:12" x14ac:dyDescent="0.3">
@@ -8191,7 +8194,7 @@
         <v>1339</v>
       </c>
       <c r="I126" t="s">
-        <v>1469</v>
+        <v>1465</v>
       </c>
     </row>
     <row r="127" spans="1:12" x14ac:dyDescent="0.3">
@@ -8217,7 +8220,7 @@
         <v>1339</v>
       </c>
       <c r="I127" t="s">
-        <v>1469</v>
+        <v>1465</v>
       </c>
     </row>
     <row r="128" spans="1:12" x14ac:dyDescent="0.3">
@@ -8243,7 +8246,7 @@
         <v>1339</v>
       </c>
       <c r="I128" t="s">
-        <v>1469</v>
+        <v>1465</v>
       </c>
     </row>
     <row r="129" spans="1:9" x14ac:dyDescent="0.3">
@@ -8269,7 +8272,7 @@
         <v>1340</v>
       </c>
       <c r="I129" t="s">
-        <v>1465</v>
+        <v>1476</v>
       </c>
     </row>
     <row r="130" spans="1:9" x14ac:dyDescent="0.3">
@@ -8292,10 +8295,10 @@
         <v>1091</v>
       </c>
       <c r="H130" t="s">
-        <v>1472</v>
+        <v>1468</v>
       </c>
       <c r="I130" t="s">
-        <v>1465</v>
+        <v>1461</v>
       </c>
     </row>
     <row r="131" spans="1:9" x14ac:dyDescent="0.3">
@@ -8321,7 +8324,7 @@
         <v>1341</v>
       </c>
       <c r="I131" t="s">
-        <v>1465</v>
+        <v>1461</v>
       </c>
     </row>
     <row r="132" spans="1:9" x14ac:dyDescent="0.3">
@@ -8347,7 +8350,7 @@
         <v>1342</v>
       </c>
       <c r="I132" t="s">
-        <v>1465</v>
+        <v>1461</v>
       </c>
     </row>
     <row r="133" spans="1:9" x14ac:dyDescent="0.3">
@@ -8373,7 +8376,7 @@
         <v>1342</v>
       </c>
       <c r="I133" t="s">
-        <v>1465</v>
+        <v>1461</v>
       </c>
     </row>
     <row r="134" spans="1:9" x14ac:dyDescent="0.3">
@@ -8399,7 +8402,7 @@
         <v>1343</v>
       </c>
       <c r="I134" t="s">
-        <v>1468</v>
+        <v>1464</v>
       </c>
     </row>
     <row r="135" spans="1:9" x14ac:dyDescent="0.3">
@@ -8425,7 +8428,7 @@
         <v>1343</v>
       </c>
       <c r="I135" t="s">
-        <v>1468</v>
+        <v>1464</v>
       </c>
     </row>
     <row r="136" spans="1:9" x14ac:dyDescent="0.3">
@@ -8451,7 +8454,7 @@
         <v>1344</v>
       </c>
       <c r="I136" t="s">
-        <v>1465</v>
+        <v>1476</v>
       </c>
     </row>
     <row r="137" spans="1:9" x14ac:dyDescent="0.3">
@@ -8477,7 +8480,7 @@
         <v>1344</v>
       </c>
       <c r="I137" t="s">
-        <v>1465</v>
+        <v>1476</v>
       </c>
     </row>
     <row r="138" spans="1:9" x14ac:dyDescent="0.3">
@@ -8500,10 +8503,10 @@
         <v>1098</v>
       </c>
       <c r="H138" t="s">
-        <v>1429</v>
+        <v>1477</v>
       </c>
       <c r="I138" t="s">
-        <v>1468</v>
+        <v>1464</v>
       </c>
     </row>
     <row r="139" spans="1:9" x14ac:dyDescent="0.3">
@@ -8526,10 +8529,10 @@
         <v>1099</v>
       </c>
       <c r="H139" t="s">
-        <v>1429</v>
+        <v>1477</v>
       </c>
       <c r="I139" t="s">
-        <v>1468</v>
+        <v>1464</v>
       </c>
     </row>
     <row r="140" spans="1:9" x14ac:dyDescent="0.3">
@@ -8552,10 +8555,10 @@
         <v>1100</v>
       </c>
       <c r="H140" t="s">
-        <v>1430</v>
+        <v>1428</v>
       </c>
       <c r="I140" t="s">
-        <v>1465</v>
+        <v>1476</v>
       </c>
     </row>
     <row r="141" spans="1:9" x14ac:dyDescent="0.3">
@@ -8578,10 +8581,10 @@
         <v>1008</v>
       </c>
       <c r="H141" t="s">
-        <v>1430</v>
+        <v>1428</v>
       </c>
       <c r="I141" t="s">
-        <v>1465</v>
+        <v>1476</v>
       </c>
     </row>
     <row r="142" spans="1:9" x14ac:dyDescent="0.3">
@@ -8604,10 +8607,10 @@
         <v>1101</v>
       </c>
       <c r="H142" t="s">
-        <v>1431</v>
+        <v>1429</v>
       </c>
       <c r="I142" t="s">
-        <v>1465</v>
+        <v>1461</v>
       </c>
     </row>
     <row r="143" spans="1:9" x14ac:dyDescent="0.3">
@@ -8630,10 +8633,10 @@
         <v>1102</v>
       </c>
       <c r="H143" t="s">
-        <v>1432</v>
+        <v>1478</v>
       </c>
       <c r="I143" t="s">
-        <v>1465</v>
+        <v>1461</v>
       </c>
     </row>
     <row r="144" spans="1:9" x14ac:dyDescent="0.3">
@@ -8656,10 +8659,10 @@
         <v>1103</v>
       </c>
       <c r="H144" t="s">
-        <v>1432</v>
+        <v>1478</v>
       </c>
       <c r="I144" t="s">
-        <v>1465</v>
+        <v>1461</v>
       </c>
     </row>
     <row r="145" spans="1:12" x14ac:dyDescent="0.3">
@@ -8682,10 +8685,10 @@
         <v>1104</v>
       </c>
       <c r="H145" t="s">
-        <v>1433</v>
+        <v>1430</v>
       </c>
       <c r="I145" t="s">
-        <v>1468</v>
+        <v>1464</v>
       </c>
     </row>
     <row r="146" spans="1:12" x14ac:dyDescent="0.3">
@@ -8708,10 +8711,10 @@
         <v>1105</v>
       </c>
       <c r="H146" t="s">
-        <v>1433</v>
+        <v>1430</v>
       </c>
       <c r="I146" t="s">
-        <v>1468</v>
+        <v>1464</v>
       </c>
     </row>
     <row r="147" spans="1:12" x14ac:dyDescent="0.3">
@@ -8734,10 +8737,10 @@
         <v>1106</v>
       </c>
       <c r="H147" t="s">
-        <v>1433</v>
+        <v>1430</v>
       </c>
       <c r="I147" t="s">
-        <v>1468</v>
+        <v>1464</v>
       </c>
     </row>
     <row r="148" spans="1:12" x14ac:dyDescent="0.3">
@@ -8763,7 +8766,7 @@
         <v>1345</v>
       </c>
       <c r="I148" t="s">
-        <v>1465</v>
+        <v>1461</v>
       </c>
     </row>
     <row r="149" spans="1:12" x14ac:dyDescent="0.3">
@@ -8789,7 +8792,7 @@
         <v>1345</v>
       </c>
       <c r="I149" t="s">
-        <v>1465</v>
+        <v>1461</v>
       </c>
     </row>
     <row r="150" spans="1:12" x14ac:dyDescent="0.3">
@@ -8815,7 +8818,7 @@
         <v>1320</v>
       </c>
       <c r="I150" t="s">
-        <v>1468</v>
+        <v>1464</v>
       </c>
     </row>
     <row r="151" spans="1:12" x14ac:dyDescent="0.3">
@@ -8841,7 +8844,7 @@
         <v>1320</v>
       </c>
       <c r="I151" t="s">
-        <v>1468</v>
+        <v>1464</v>
       </c>
     </row>
     <row r="152" spans="1:12" x14ac:dyDescent="0.3">
@@ -8864,10 +8867,10 @@
         <v>1111</v>
       </c>
       <c r="H152" t="s">
-        <v>1434</v>
+        <v>1431</v>
       </c>
       <c r="I152" t="s">
-        <v>1465</v>
+        <v>1476</v>
       </c>
     </row>
     <row r="153" spans="1:12" x14ac:dyDescent="0.3">
@@ -8890,10 +8893,10 @@
         <v>1112</v>
       </c>
       <c r="H153" t="s">
-        <v>1434</v>
+        <v>1431</v>
       </c>
       <c r="I153" t="s">
-        <v>1465</v>
+        <v>1476</v>
       </c>
     </row>
     <row r="154" spans="1:12" x14ac:dyDescent="0.3">
@@ -8916,16 +8919,16 @@
         <v>1113</v>
       </c>
       <c r="H154" t="s">
-        <v>1434</v>
+        <v>1431</v>
       </c>
       <c r="I154" t="s">
-        <v>1465</v>
+        <v>1476</v>
       </c>
       <c r="K154" t="s">
         <v>1346</v>
       </c>
       <c r="L154" t="s">
-        <v>1465</v>
+        <v>1461</v>
       </c>
     </row>
     <row r="155" spans="1:12" x14ac:dyDescent="0.3">
@@ -8951,7 +8954,7 @@
         <v>1346</v>
       </c>
       <c r="I155" t="s">
-        <v>1465</v>
+        <v>1461</v>
       </c>
     </row>
     <row r="156" spans="1:12" x14ac:dyDescent="0.3">
@@ -8974,10 +8977,10 @@
         <v>1115</v>
       </c>
       <c r="H156" t="s">
-        <v>1435</v>
+        <v>1432</v>
       </c>
       <c r="I156" t="s">
-        <v>1469</v>
+        <v>1465</v>
       </c>
     </row>
     <row r="157" spans="1:12" x14ac:dyDescent="0.3">
@@ -9000,10 +9003,10 @@
         <v>1116</v>
       </c>
       <c r="H157" t="s">
-        <v>1435</v>
+        <v>1432</v>
       </c>
       <c r="I157" t="s">
-        <v>1469</v>
+        <v>1465</v>
       </c>
     </row>
     <row r="158" spans="1:12" x14ac:dyDescent="0.3">
@@ -9026,10 +9029,10 @@
         <v>1117</v>
       </c>
       <c r="H158" t="s">
-        <v>1435</v>
+        <v>1432</v>
       </c>
       <c r="I158" t="s">
-        <v>1469</v>
+        <v>1465</v>
       </c>
     </row>
     <row r="159" spans="1:12" x14ac:dyDescent="0.3">
@@ -9052,10 +9055,10 @@
         <v>1118</v>
       </c>
       <c r="H159" t="s">
-        <v>1435</v>
+        <v>1432</v>
       </c>
       <c r="I159" t="s">
-        <v>1469</v>
+        <v>1465</v>
       </c>
     </row>
     <row r="160" spans="1:12" x14ac:dyDescent="0.3">
@@ -9078,10 +9081,10 @@
         <v>1119</v>
       </c>
       <c r="H160" t="s">
-        <v>1436</v>
+        <v>1433</v>
       </c>
       <c r="I160" t="s">
-        <v>1468</v>
+        <v>1464</v>
       </c>
     </row>
     <row r="161" spans="1:12" x14ac:dyDescent="0.3">
@@ -9104,10 +9107,10 @@
         <v>1120</v>
       </c>
       <c r="H161" t="s">
-        <v>1436</v>
+        <v>1433</v>
       </c>
       <c r="I161" t="s">
-        <v>1468</v>
+        <v>1464</v>
       </c>
     </row>
     <row r="162" spans="1:12" x14ac:dyDescent="0.3">
@@ -9130,10 +9133,10 @@
         <v>1121</v>
       </c>
       <c r="H162" t="s">
-        <v>1436</v>
+        <v>1433</v>
       </c>
       <c r="I162" t="s">
-        <v>1468</v>
+        <v>1464</v>
       </c>
     </row>
     <row r="163" spans="1:12" x14ac:dyDescent="0.3">
@@ -9156,10 +9159,10 @@
         <v>1122</v>
       </c>
       <c r="H163" t="s">
-        <v>1436</v>
+        <v>1433</v>
       </c>
       <c r="I163" t="s">
-        <v>1468</v>
+        <v>1464</v>
       </c>
     </row>
     <row r="164" spans="1:12" x14ac:dyDescent="0.3">
@@ -9182,10 +9185,10 @@
         <v>1055</v>
       </c>
       <c r="H164" t="s">
-        <v>1436</v>
+        <v>1433</v>
       </c>
       <c r="I164" t="s">
-        <v>1468</v>
+        <v>1464</v>
       </c>
     </row>
     <row r="165" spans="1:12" x14ac:dyDescent="0.3">
@@ -9211,7 +9214,7 @@
         <v>1347</v>
       </c>
       <c r="I165" t="s">
-        <v>1468</v>
+        <v>1464</v>
       </c>
     </row>
     <row r="166" spans="1:12" x14ac:dyDescent="0.3">
@@ -9237,7 +9240,7 @@
         <v>1347</v>
       </c>
       <c r="I166" t="s">
-        <v>1468</v>
+        <v>1464</v>
       </c>
     </row>
     <row r="167" spans="1:12" x14ac:dyDescent="0.3">
@@ -9263,7 +9266,7 @@
         <v>1347</v>
       </c>
       <c r="I167" t="s">
-        <v>1468</v>
+        <v>1464</v>
       </c>
     </row>
     <row r="168" spans="1:12" x14ac:dyDescent="0.3">
@@ -9289,7 +9292,7 @@
         <v>1347</v>
       </c>
       <c r="I168" t="s">
-        <v>1468</v>
+        <v>1464</v>
       </c>
     </row>
     <row r="169" spans="1:12" x14ac:dyDescent="0.3">
@@ -9312,10 +9315,10 @@
         <v>1087</v>
       </c>
       <c r="H169" t="s">
-        <v>1437</v>
+        <v>1479</v>
       </c>
       <c r="I169" t="s">
-        <v>1465</v>
+        <v>1476</v>
       </c>
     </row>
     <row r="170" spans="1:12" x14ac:dyDescent="0.3">
@@ -9338,10 +9341,10 @@
         <v>1127</v>
       </c>
       <c r="H170" t="s">
-        <v>1437</v>
+        <v>1479</v>
       </c>
       <c r="I170" t="s">
-        <v>1465</v>
+        <v>1476</v>
       </c>
     </row>
     <row r="171" spans="1:12" x14ac:dyDescent="0.3">
@@ -9364,10 +9367,10 @@
         <v>1128</v>
       </c>
       <c r="H171" t="s">
-        <v>1437</v>
+        <v>1479</v>
       </c>
       <c r="I171" t="s">
-        <v>1465</v>
+        <v>1476</v>
       </c>
     </row>
     <row r="172" spans="1:12" x14ac:dyDescent="0.3">
@@ -9393,7 +9396,7 @@
         <v>1348</v>
       </c>
       <c r="I172" t="s">
-        <v>1465</v>
+        <v>1461</v>
       </c>
     </row>
     <row r="173" spans="1:12" x14ac:dyDescent="0.3">
@@ -9416,10 +9419,10 @@
         <v>1069</v>
       </c>
       <c r="H173" t="s">
-        <v>1457</v>
+        <v>1453</v>
       </c>
       <c r="I173" t="s">
-        <v>1465</v>
+        <v>1461</v>
       </c>
     </row>
     <row r="174" spans="1:12" x14ac:dyDescent="0.3">
@@ -9442,10 +9445,10 @@
         <v>1069</v>
       </c>
       <c r="H174" t="s">
-        <v>1457</v>
+        <v>1453</v>
       </c>
       <c r="I174" t="s">
-        <v>1465</v>
+        <v>1461</v>
       </c>
     </row>
     <row r="175" spans="1:12" x14ac:dyDescent="0.3">
@@ -9471,7 +9474,7 @@
         <v>1349</v>
       </c>
       <c r="I175" t="s">
-        <v>1465</v>
+        <v>1461</v>
       </c>
     </row>
     <row r="176" spans="1:12" x14ac:dyDescent="0.3">
@@ -9497,13 +9500,13 @@
         <v>1349</v>
       </c>
       <c r="I176" t="s">
-        <v>1465</v>
+        <v>1461</v>
       </c>
       <c r="K176" t="s">
         <v>1370</v>
       </c>
       <c r="L176" t="s">
-        <v>1468</v>
+        <v>1464</v>
       </c>
     </row>
     <row r="177" spans="1:9" x14ac:dyDescent="0.3">
@@ -9526,10 +9529,10 @@
         <v>1037</v>
       </c>
       <c r="H177" t="s">
-        <v>1458</v>
+        <v>1454</v>
       </c>
       <c r="I177" t="s">
-        <v>1465</v>
+        <v>1461</v>
       </c>
     </row>
     <row r="178" spans="1:9" x14ac:dyDescent="0.3">
@@ -9552,10 +9555,10 @@
         <v>1132</v>
       </c>
       <c r="H178" t="s">
-        <v>1458</v>
+        <v>1454</v>
       </c>
       <c r="I178" t="s">
-        <v>1465</v>
+        <v>1461</v>
       </c>
     </row>
     <row r="179" spans="1:9" x14ac:dyDescent="0.3">
@@ -9581,7 +9584,7 @@
         <v>1350</v>
       </c>
       <c r="I179" t="s">
-        <v>1466</v>
+        <v>1462</v>
       </c>
     </row>
     <row r="180" spans="1:9" x14ac:dyDescent="0.3">
@@ -9607,7 +9610,7 @@
         <v>1350</v>
       </c>
       <c r="I180" t="s">
-        <v>1466</v>
+        <v>1462</v>
       </c>
     </row>
     <row r="181" spans="1:9" x14ac:dyDescent="0.3">
@@ -9633,7 +9636,7 @@
         <v>1350</v>
       </c>
       <c r="I181" t="s">
-        <v>1466</v>
+        <v>1462</v>
       </c>
     </row>
     <row r="182" spans="1:9" x14ac:dyDescent="0.3">
@@ -9659,7 +9662,7 @@
         <v>1350</v>
       </c>
       <c r="I182" t="s">
-        <v>1466</v>
+        <v>1462</v>
       </c>
     </row>
     <row r="183" spans="1:9" x14ac:dyDescent="0.3">
@@ -9682,10 +9685,10 @@
         <v>1137</v>
       </c>
       <c r="H183" t="s">
-        <v>1460</v>
+        <v>1456</v>
       </c>
       <c r="I183" t="s">
-        <v>1466</v>
+        <v>1462</v>
       </c>
     </row>
     <row r="184" spans="1:9" x14ac:dyDescent="0.3">
@@ -9708,10 +9711,10 @@
         <v>1138</v>
       </c>
       <c r="H184" t="s">
-        <v>1460</v>
+        <v>1456</v>
       </c>
       <c r="I184" t="s">
-        <v>1466</v>
+        <v>1462</v>
       </c>
     </row>
     <row r="185" spans="1:9" x14ac:dyDescent="0.3">
@@ -9734,10 +9737,10 @@
         <v>1060</v>
       </c>
       <c r="H185" t="s">
-        <v>1460</v>
+        <v>1456</v>
       </c>
       <c r="I185" t="s">
-        <v>1466</v>
+        <v>1462</v>
       </c>
     </row>
     <row r="186" spans="1:9" x14ac:dyDescent="0.3">
@@ -9760,10 +9763,10 @@
         <v>1139</v>
       </c>
       <c r="H186" t="s">
-        <v>1460</v>
+        <v>1456</v>
       </c>
       <c r="I186" t="s">
-        <v>1466</v>
+        <v>1462</v>
       </c>
     </row>
     <row r="187" spans="1:9" x14ac:dyDescent="0.3">
@@ -9786,10 +9789,10 @@
         <v>1140</v>
       </c>
       <c r="H187" t="s">
-        <v>1459</v>
+        <v>1455</v>
       </c>
       <c r="I187" t="s">
-        <v>1466</v>
+        <v>1462</v>
       </c>
     </row>
     <row r="188" spans="1:9" x14ac:dyDescent="0.3">
@@ -9812,10 +9815,10 @@
         <v>1135</v>
       </c>
       <c r="H188" t="s">
-        <v>1459</v>
+        <v>1455</v>
       </c>
       <c r="I188" t="s">
-        <v>1466</v>
+        <v>1462</v>
       </c>
     </row>
     <row r="189" spans="1:9" x14ac:dyDescent="0.3">
@@ -9838,10 +9841,10 @@
         <v>1141</v>
       </c>
       <c r="H189" t="s">
-        <v>1459</v>
+        <v>1455</v>
       </c>
       <c r="I189" t="s">
-        <v>1466</v>
+        <v>1462</v>
       </c>
     </row>
     <row r="190" spans="1:9" x14ac:dyDescent="0.3">
@@ -9867,7 +9870,7 @@
         <v>1352</v>
       </c>
       <c r="I190" t="s">
-        <v>1467</v>
+        <v>1463</v>
       </c>
     </row>
     <row r="191" spans="1:9" x14ac:dyDescent="0.3">
@@ -9893,7 +9896,7 @@
         <v>1352</v>
       </c>
       <c r="I191" t="s">
-        <v>1467</v>
+        <v>1463</v>
       </c>
     </row>
     <row r="192" spans="1:9" x14ac:dyDescent="0.3">
@@ -9919,7 +9922,7 @@
         <v>1352</v>
       </c>
       <c r="I192" t="s">
-        <v>1467</v>
+        <v>1463</v>
       </c>
     </row>
     <row r="193" spans="1:12" x14ac:dyDescent="0.3">
@@ -9945,10 +9948,10 @@
         <v>1353</v>
       </c>
       <c r="I193" t="s">
-        <v>1468</v>
+        <v>1464</v>
       </c>
       <c r="J193" t="s">
-        <v>1470</v>
+        <v>1466</v>
       </c>
     </row>
     <row r="194" spans="1:12" x14ac:dyDescent="0.3">
@@ -9974,10 +9977,10 @@
         <v>1353</v>
       </c>
       <c r="I194" t="s">
-        <v>1468</v>
+        <v>1464</v>
       </c>
       <c r="J194" t="s">
-        <v>1470</v>
+        <v>1466</v>
       </c>
     </row>
     <row r="195" spans="1:12" x14ac:dyDescent="0.3">
@@ -10003,7 +10006,7 @@
         <v>1354</v>
       </c>
       <c r="I195" t="s">
-        <v>1465</v>
+        <v>1476</v>
       </c>
     </row>
     <row r="196" spans="1:12" x14ac:dyDescent="0.3">
@@ -10029,7 +10032,7 @@
         <v>1354</v>
       </c>
       <c r="I196" t="s">
-        <v>1465</v>
+        <v>1476</v>
       </c>
     </row>
     <row r="197" spans="1:12" x14ac:dyDescent="0.3">
@@ -10055,10 +10058,10 @@
         <v>1353</v>
       </c>
       <c r="I197" t="s">
-        <v>1468</v>
+        <v>1464</v>
       </c>
       <c r="J197" t="s">
-        <v>1470</v>
+        <v>1466</v>
       </c>
     </row>
     <row r="198" spans="1:12" x14ac:dyDescent="0.3">
@@ -10084,10 +10087,10 @@
         <v>1353</v>
       </c>
       <c r="I198" t="s">
-        <v>1468</v>
+        <v>1464</v>
       </c>
       <c r="J198" t="s">
-        <v>1470</v>
+        <v>1466</v>
       </c>
     </row>
     <row r="199" spans="1:12" x14ac:dyDescent="0.3">
@@ -10113,16 +10116,16 @@
         <v>1353</v>
       </c>
       <c r="I199" t="s">
-        <v>1468</v>
+        <v>1464</v>
       </c>
       <c r="J199" t="s">
-        <v>1470</v>
+        <v>1466</v>
       </c>
       <c r="K199" t="s">
         <v>1354</v>
       </c>
       <c r="L199" t="s">
-        <v>1465</v>
+        <v>1476</v>
       </c>
     </row>
     <row r="200" spans="1:12" x14ac:dyDescent="0.3">
@@ -10148,10 +10151,10 @@
         <v>1353</v>
       </c>
       <c r="I200" t="s">
-        <v>1468</v>
+        <v>1464</v>
       </c>
       <c r="J200" t="s">
-        <v>1470</v>
+        <v>1466</v>
       </c>
     </row>
     <row r="201" spans="1:12" x14ac:dyDescent="0.3">
@@ -10177,10 +10180,10 @@
         <v>1353</v>
       </c>
       <c r="I201" t="s">
-        <v>1468</v>
+        <v>1464</v>
       </c>
       <c r="J201" t="s">
-        <v>1470</v>
+        <v>1466</v>
       </c>
     </row>
     <row r="202" spans="1:12" x14ac:dyDescent="0.3">
@@ -10206,7 +10209,7 @@
         <v>1354</v>
       </c>
       <c r="I202" t="s">
-        <v>1465</v>
+        <v>1476</v>
       </c>
     </row>
     <row r="203" spans="1:12" x14ac:dyDescent="0.3">
@@ -10232,7 +10235,7 @@
         <v>1354</v>
       </c>
       <c r="I203" t="s">
-        <v>1465</v>
+        <v>1476</v>
       </c>
     </row>
     <row r="204" spans="1:12" x14ac:dyDescent="0.3">
@@ -10258,7 +10261,7 @@
         <v>1354</v>
       </c>
       <c r="I204" t="s">
-        <v>1465</v>
+        <v>1476</v>
       </c>
     </row>
     <row r="205" spans="1:12" x14ac:dyDescent="0.3">
@@ -10284,7 +10287,7 @@
         <v>1355</v>
       </c>
       <c r="I205" t="s">
-        <v>1468</v>
+        <v>1464</v>
       </c>
     </row>
     <row r="206" spans="1:12" x14ac:dyDescent="0.3">
@@ -10310,7 +10313,7 @@
         <v>1355</v>
       </c>
       <c r="I206" t="s">
-        <v>1468</v>
+        <v>1464</v>
       </c>
     </row>
     <row r="207" spans="1:12" x14ac:dyDescent="0.3">
@@ -10336,7 +10339,7 @@
         <v>1355</v>
       </c>
       <c r="I207" t="s">
-        <v>1468</v>
+        <v>1464</v>
       </c>
     </row>
     <row r="208" spans="1:12" x14ac:dyDescent="0.3">
@@ -10362,7 +10365,7 @@
         <v>1355</v>
       </c>
       <c r="I208" t="s">
-        <v>1468</v>
+        <v>1464</v>
       </c>
     </row>
     <row r="209" spans="1:9" x14ac:dyDescent="0.3">
@@ -10388,7 +10391,7 @@
         <v>1355</v>
       </c>
       <c r="I209" t="s">
-        <v>1468</v>
+        <v>1464</v>
       </c>
     </row>
     <row r="210" spans="1:9" x14ac:dyDescent="0.3">
@@ -10414,7 +10417,7 @@
         <v>1355</v>
       </c>
       <c r="I210" t="s">
-        <v>1468</v>
+        <v>1464</v>
       </c>
     </row>
     <row r="211" spans="1:9" x14ac:dyDescent="0.3">
@@ -10440,7 +10443,7 @@
         <v>1355</v>
       </c>
       <c r="I211" t="s">
-        <v>1468</v>
+        <v>1464</v>
       </c>
     </row>
     <row r="212" spans="1:9" x14ac:dyDescent="0.3">
@@ -10466,7 +10469,7 @@
         <v>1313</v>
       </c>
       <c r="I212" t="s">
-        <v>1465</v>
+        <v>1461</v>
       </c>
     </row>
     <row r="213" spans="1:9" x14ac:dyDescent="0.3">
@@ -10492,7 +10495,7 @@
         <v>1356</v>
       </c>
       <c r="I213" t="s">
-        <v>1468</v>
+        <v>1464</v>
       </c>
     </row>
     <row r="214" spans="1:9" x14ac:dyDescent="0.3">
@@ -10518,7 +10521,7 @@
         <v>1356</v>
       </c>
       <c r="I214" t="s">
-        <v>1468</v>
+        <v>1464</v>
       </c>
     </row>
     <row r="215" spans="1:9" x14ac:dyDescent="0.3">
@@ -10544,7 +10547,7 @@
         <v>1356</v>
       </c>
       <c r="I215" t="s">
-        <v>1468</v>
+        <v>1464</v>
       </c>
     </row>
     <row r="216" spans="1:9" x14ac:dyDescent="0.3">
@@ -10570,7 +10573,7 @@
         <v>1357</v>
       </c>
       <c r="I216" t="s">
-        <v>1468</v>
+        <v>1464</v>
       </c>
     </row>
     <row r="217" spans="1:9" x14ac:dyDescent="0.3">
@@ -10596,7 +10599,7 @@
         <v>1357</v>
       </c>
       <c r="I217" t="s">
-        <v>1468</v>
+        <v>1464</v>
       </c>
     </row>
     <row r="218" spans="1:9" x14ac:dyDescent="0.3">
@@ -10622,7 +10625,7 @@
         <v>1357</v>
       </c>
       <c r="I218" t="s">
-        <v>1468</v>
+        <v>1464</v>
       </c>
     </row>
     <row r="219" spans="1:9" x14ac:dyDescent="0.3">
@@ -10648,7 +10651,7 @@
         <v>1357</v>
       </c>
       <c r="I219" t="s">
-        <v>1468</v>
+        <v>1464</v>
       </c>
     </row>
     <row r="220" spans="1:9" x14ac:dyDescent="0.3">
@@ -10674,7 +10677,7 @@
         <v>1357</v>
       </c>
       <c r="I220" t="s">
-        <v>1468</v>
+        <v>1464</v>
       </c>
     </row>
     <row r="221" spans="1:9" x14ac:dyDescent="0.3">
@@ -10697,10 +10700,10 @@
         <v>1166</v>
       </c>
       <c r="H221" t="s">
-        <v>1438</v>
+        <v>1434</v>
       </c>
       <c r="I221" t="s">
-        <v>1465</v>
+        <v>1461</v>
       </c>
     </row>
     <row r="222" spans="1:9" x14ac:dyDescent="0.3">
@@ -10723,10 +10726,10 @@
         <v>1167</v>
       </c>
       <c r="H222" t="s">
-        <v>1438</v>
+        <v>1434</v>
       </c>
       <c r="I222" t="s">
-        <v>1465</v>
+        <v>1461</v>
       </c>
     </row>
     <row r="223" spans="1:9" x14ac:dyDescent="0.3">
@@ -10749,10 +10752,10 @@
         <v>1168</v>
       </c>
       <c r="H223" t="s">
-        <v>1438</v>
+        <v>1434</v>
       </c>
       <c r="I223" t="s">
-        <v>1465</v>
+        <v>1461</v>
       </c>
     </row>
     <row r="224" spans="1:9" x14ac:dyDescent="0.3">
@@ -10778,7 +10781,7 @@
         <v>1358</v>
       </c>
       <c r="I224" t="s">
-        <v>1468</v>
+        <v>1464</v>
       </c>
     </row>
     <row r="225" spans="1:10" x14ac:dyDescent="0.3">
@@ -10804,7 +10807,7 @@
         <v>1358</v>
       </c>
       <c r="I225" t="s">
-        <v>1468</v>
+        <v>1464</v>
       </c>
     </row>
     <row r="226" spans="1:10" x14ac:dyDescent="0.3">
@@ -10830,7 +10833,7 @@
         <v>1358</v>
       </c>
       <c r="I226" t="s">
-        <v>1468</v>
+        <v>1464</v>
       </c>
     </row>
     <row r="227" spans="1:10" x14ac:dyDescent="0.3">
@@ -10856,7 +10859,7 @@
         <v>1358</v>
       </c>
       <c r="I227" t="s">
-        <v>1468</v>
+        <v>1464</v>
       </c>
     </row>
     <row r="228" spans="1:10" x14ac:dyDescent="0.3">
@@ -10882,7 +10885,7 @@
         <v>1358</v>
       </c>
       <c r="I228" t="s">
-        <v>1468</v>
+        <v>1464</v>
       </c>
     </row>
     <row r="229" spans="1:10" x14ac:dyDescent="0.3">
@@ -10908,7 +10911,7 @@
         <v>1359</v>
       </c>
       <c r="I229" t="s">
-        <v>1467</v>
+        <v>1463</v>
       </c>
     </row>
     <row r="230" spans="1:10" x14ac:dyDescent="0.3">
@@ -10931,7 +10934,7 @@
         <v>1173</v>
       </c>
       <c r="H230" t="s">
-        <v>1473</v>
+        <v>1469</v>
       </c>
     </row>
     <row r="231" spans="1:10" x14ac:dyDescent="0.3">
@@ -10954,7 +10957,7 @@
         <v>1064</v>
       </c>
       <c r="H231" t="s">
-        <v>1473</v>
+        <v>1469</v>
       </c>
     </row>
     <row r="232" spans="1:10" x14ac:dyDescent="0.3">
@@ -10977,7 +10980,7 @@
         <v>1174</v>
       </c>
       <c r="H232" t="s">
-        <v>1473</v>
+        <v>1469</v>
       </c>
     </row>
     <row r="233" spans="1:10" x14ac:dyDescent="0.3">
@@ -11003,7 +11006,7 @@
         <v>1360</v>
       </c>
       <c r="I233" t="s">
-        <v>1465</v>
+        <v>1461</v>
       </c>
     </row>
     <row r="234" spans="1:10" x14ac:dyDescent="0.3">
@@ -11029,7 +11032,7 @@
         <v>1361</v>
       </c>
       <c r="I234" t="s">
-        <v>1468</v>
+        <v>1464</v>
       </c>
     </row>
     <row r="235" spans="1:10" x14ac:dyDescent="0.3">
@@ -11055,10 +11058,10 @@
         <v>1362</v>
       </c>
       <c r="I235" t="s">
-        <v>1469</v>
+        <v>1465</v>
       </c>
       <c r="J235" t="s">
-        <v>1470</v>
+        <v>1466</v>
       </c>
     </row>
     <row r="236" spans="1:10" x14ac:dyDescent="0.3">
@@ -11084,10 +11087,10 @@
         <v>1362</v>
       </c>
       <c r="I236" t="s">
-        <v>1469</v>
+        <v>1465</v>
       </c>
       <c r="J236" t="s">
-        <v>1470</v>
+        <v>1466</v>
       </c>
     </row>
     <row r="237" spans="1:10" x14ac:dyDescent="0.3">
@@ -11113,10 +11116,10 @@
         <v>1362</v>
       </c>
       <c r="I237" t="s">
-        <v>1469</v>
+        <v>1465</v>
       </c>
       <c r="J237" t="s">
-        <v>1470</v>
+        <v>1466</v>
       </c>
     </row>
     <row r="238" spans="1:10" x14ac:dyDescent="0.3">
@@ -11142,7 +11145,7 @@
         <v>1363</v>
       </c>
       <c r="I238" t="s">
-        <v>1465</v>
+        <v>1461</v>
       </c>
     </row>
     <row r="239" spans="1:10" x14ac:dyDescent="0.3">
@@ -11168,7 +11171,7 @@
         <v>1360</v>
       </c>
       <c r="I239" t="s">
-        <v>1465</v>
+        <v>1461</v>
       </c>
     </row>
     <row r="240" spans="1:10" x14ac:dyDescent="0.3">
@@ -11191,10 +11194,10 @@
         <v>1180</v>
       </c>
       <c r="H240" t="s">
-        <v>1439</v>
+        <v>1435</v>
       </c>
       <c r="I240" t="s">
-        <v>1468</v>
+        <v>1464</v>
       </c>
     </row>
     <row r="241" spans="1:9" x14ac:dyDescent="0.3">
@@ -11220,7 +11223,7 @@
         <v>1361</v>
       </c>
       <c r="I241" t="s">
-        <v>1468</v>
+        <v>1464</v>
       </c>
     </row>
     <row r="242" spans="1:9" x14ac:dyDescent="0.3">
@@ -11246,7 +11249,7 @@
         <v>1364</v>
       </c>
       <c r="I242" t="s">
-        <v>1465</v>
+        <v>1476</v>
       </c>
     </row>
     <row r="243" spans="1:9" x14ac:dyDescent="0.3">
@@ -11272,7 +11275,7 @@
         <v>1364</v>
       </c>
       <c r="I243" t="s">
-        <v>1465</v>
+        <v>1476</v>
       </c>
     </row>
     <row r="244" spans="1:9" x14ac:dyDescent="0.3">
@@ -11298,7 +11301,7 @@
         <v>1364</v>
       </c>
       <c r="I244" t="s">
-        <v>1465</v>
+        <v>1476</v>
       </c>
     </row>
     <row r="245" spans="1:9" x14ac:dyDescent="0.3">
@@ -11324,7 +11327,7 @@
         <v>1364</v>
       </c>
       <c r="I245" t="s">
-        <v>1465</v>
+        <v>1476</v>
       </c>
     </row>
     <row r="246" spans="1:9" x14ac:dyDescent="0.3">
@@ -11347,10 +11350,10 @@
         <v>1185</v>
       </c>
       <c r="H246" t="s">
-        <v>1439</v>
+        <v>1435</v>
       </c>
       <c r="I246" t="s">
-        <v>1468</v>
+        <v>1464</v>
       </c>
     </row>
     <row r="247" spans="1:9" x14ac:dyDescent="0.3">
@@ -11373,10 +11376,10 @@
         <v>987</v>
       </c>
       <c r="H247" t="s">
-        <v>1440</v>
+        <v>1436</v>
       </c>
       <c r="I247" t="s">
-        <v>1465</v>
+        <v>1476</v>
       </c>
     </row>
     <row r="248" spans="1:9" x14ac:dyDescent="0.3">
@@ -11399,10 +11402,10 @@
         <v>1019</v>
       </c>
       <c r="H248" t="s">
-        <v>1440</v>
+        <v>1436</v>
       </c>
       <c r="I248" t="s">
-        <v>1465</v>
+        <v>1476</v>
       </c>
     </row>
     <row r="249" spans="1:9" x14ac:dyDescent="0.3">
@@ -11425,10 +11428,10 @@
         <v>1186</v>
       </c>
       <c r="H249" t="s">
-        <v>1440</v>
+        <v>1436</v>
       </c>
       <c r="I249" t="s">
-        <v>1465</v>
+        <v>1476</v>
       </c>
     </row>
     <row r="250" spans="1:9" x14ac:dyDescent="0.3">
@@ -11454,7 +11457,7 @@
         <v>1361</v>
       </c>
       <c r="I250" t="s">
-        <v>1468</v>
+        <v>1464</v>
       </c>
     </row>
     <row r="251" spans="1:9" x14ac:dyDescent="0.3">
@@ -11477,10 +11480,10 @@
         <v>1188</v>
       </c>
       <c r="H251" t="s">
-        <v>1439</v>
+        <v>1435</v>
       </c>
       <c r="I251" t="s">
-        <v>1468</v>
+        <v>1464</v>
       </c>
     </row>
     <row r="252" spans="1:9" x14ac:dyDescent="0.3">
@@ -11503,10 +11506,10 @@
         <v>1189</v>
       </c>
       <c r="H252" t="s">
-        <v>1439</v>
+        <v>1435</v>
       </c>
       <c r="I252" t="s">
-        <v>1468</v>
+        <v>1464</v>
       </c>
     </row>
     <row r="253" spans="1:9" x14ac:dyDescent="0.3">
@@ -11532,7 +11535,7 @@
         <v>1363</v>
       </c>
       <c r="I253" t="s">
-        <v>1465</v>
+        <v>1461</v>
       </c>
     </row>
     <row r="254" spans="1:9" x14ac:dyDescent="0.3">
@@ -11558,7 +11561,7 @@
         <v>1361</v>
       </c>
       <c r="I254" t="s">
-        <v>1468</v>
+        <v>1464</v>
       </c>
     </row>
     <row r="255" spans="1:9" x14ac:dyDescent="0.3">
@@ -11584,7 +11587,7 @@
         <v>1361</v>
       </c>
       <c r="I255" t="s">
-        <v>1468</v>
+        <v>1464</v>
       </c>
     </row>
     <row r="256" spans="1:9" x14ac:dyDescent="0.3">
@@ -11607,10 +11610,10 @@
         <v>1091</v>
       </c>
       <c r="H256" t="s">
-        <v>1439</v>
+        <v>1435</v>
       </c>
       <c r="I256" t="s">
-        <v>1468</v>
+        <v>1464</v>
       </c>
     </row>
     <row r="257" spans="1:9" x14ac:dyDescent="0.3">
@@ -11636,7 +11639,7 @@
         <v>1365</v>
       </c>
       <c r="I257" t="s">
-        <v>1465</v>
+        <v>1461</v>
       </c>
     </row>
     <row r="258" spans="1:9" x14ac:dyDescent="0.3">
@@ -11662,7 +11665,7 @@
         <v>1363</v>
       </c>
       <c r="I258" t="s">
-        <v>1465</v>
+        <v>1461</v>
       </c>
     </row>
     <row r="259" spans="1:9" x14ac:dyDescent="0.3">
@@ -11688,7 +11691,7 @@
         <v>1366</v>
       </c>
       <c r="I259" t="s">
-        <v>1465</v>
+        <v>1461</v>
       </c>
     </row>
     <row r="260" spans="1:9" x14ac:dyDescent="0.3">
@@ -11714,7 +11717,7 @@
         <v>1367</v>
       </c>
       <c r="I260" t="s">
-        <v>1465</v>
+        <v>1461</v>
       </c>
     </row>
     <row r="261" spans="1:9" x14ac:dyDescent="0.3">
@@ -11740,7 +11743,7 @@
         <v>1367</v>
       </c>
       <c r="I261" t="s">
-        <v>1465</v>
+        <v>1461</v>
       </c>
     </row>
     <row r="262" spans="1:9" x14ac:dyDescent="0.3">
@@ -11766,7 +11769,7 @@
         <v>1367</v>
       </c>
       <c r="I262" t="s">
-        <v>1465</v>
+        <v>1461</v>
       </c>
     </row>
     <row r="263" spans="1:9" x14ac:dyDescent="0.3">
@@ -11792,7 +11795,7 @@
         <v>1367</v>
       </c>
       <c r="I263" t="s">
-        <v>1465</v>
+        <v>1461</v>
       </c>
     </row>
     <row r="264" spans="1:9" x14ac:dyDescent="0.3">
@@ -11818,7 +11821,7 @@
         <v>1367</v>
       </c>
       <c r="I264" t="s">
-        <v>1465</v>
+        <v>1461</v>
       </c>
     </row>
     <row r="265" spans="1:9" x14ac:dyDescent="0.3">
@@ -11844,7 +11847,7 @@
         <v>1367</v>
       </c>
       <c r="I265" t="s">
-        <v>1465</v>
+        <v>1461</v>
       </c>
     </row>
     <row r="266" spans="1:9" x14ac:dyDescent="0.3">
@@ -11870,7 +11873,7 @@
         <v>1326</v>
       </c>
       <c r="I266" t="s">
-        <v>1465</v>
+        <v>1461</v>
       </c>
     </row>
     <row r="267" spans="1:9" x14ac:dyDescent="0.3">
@@ -11896,7 +11899,7 @@
         <v>1368</v>
       </c>
       <c r="I267" t="s">
-        <v>1468</v>
+        <v>1464</v>
       </c>
     </row>
     <row r="268" spans="1:9" x14ac:dyDescent="0.3">
@@ -11922,7 +11925,7 @@
         <v>1368</v>
       </c>
       <c r="I268" t="s">
-        <v>1468</v>
+        <v>1464</v>
       </c>
     </row>
     <row r="269" spans="1:9" x14ac:dyDescent="0.3">
@@ -11948,7 +11951,7 @@
         <v>1326</v>
       </c>
       <c r="I269" t="s">
-        <v>1465</v>
+        <v>1461</v>
       </c>
     </row>
     <row r="270" spans="1:9" x14ac:dyDescent="0.3">
@@ -11974,7 +11977,7 @@
         <v>1326</v>
       </c>
       <c r="I270" t="s">
-        <v>1465</v>
+        <v>1461</v>
       </c>
     </row>
     <row r="271" spans="1:9" x14ac:dyDescent="0.3">
@@ -12000,7 +12003,7 @@
         <v>1326</v>
       </c>
       <c r="I271" t="s">
-        <v>1465</v>
+        <v>1461</v>
       </c>
     </row>
     <row r="272" spans="1:9" x14ac:dyDescent="0.3">
@@ -12026,7 +12029,7 @@
         <v>1304</v>
       </c>
       <c r="I272" t="s">
-        <v>1468</v>
+        <v>1464</v>
       </c>
     </row>
     <row r="273" spans="1:9" x14ac:dyDescent="0.3">
@@ -12052,7 +12055,7 @@
         <v>1331</v>
       </c>
       <c r="I273" t="s">
-        <v>1469</v>
+        <v>1465</v>
       </c>
     </row>
     <row r="274" spans="1:9" x14ac:dyDescent="0.3">
@@ -12078,7 +12081,7 @@
         <v>1331</v>
       </c>
       <c r="I274" t="s">
-        <v>1469</v>
+        <v>1465</v>
       </c>
     </row>
     <row r="275" spans="1:9" x14ac:dyDescent="0.3">
@@ -12104,7 +12107,7 @@
         <v>1304</v>
       </c>
       <c r="I275" t="s">
-        <v>1468</v>
+        <v>1464</v>
       </c>
     </row>
     <row r="276" spans="1:9" x14ac:dyDescent="0.3">
@@ -12130,7 +12133,7 @@
         <v>1331</v>
       </c>
       <c r="I276" t="s">
-        <v>1469</v>
+        <v>1465</v>
       </c>
     </row>
     <row r="277" spans="1:9" x14ac:dyDescent="0.3">
@@ -12156,7 +12159,7 @@
         <v>1369</v>
       </c>
       <c r="I277" t="s">
-        <v>1469</v>
+        <v>1465</v>
       </c>
     </row>
     <row r="278" spans="1:9" x14ac:dyDescent="0.3">
@@ -12182,7 +12185,7 @@
         <v>1369</v>
       </c>
       <c r="I278" t="s">
-        <v>1469</v>
+        <v>1465</v>
       </c>
     </row>
     <row r="279" spans="1:9" x14ac:dyDescent="0.3">
@@ -12208,7 +12211,7 @@
         <v>1369</v>
       </c>
       <c r="I279" t="s">
-        <v>1469</v>
+        <v>1465</v>
       </c>
     </row>
     <row r="280" spans="1:9" x14ac:dyDescent="0.3">
@@ -12234,7 +12237,7 @@
         <v>1369</v>
       </c>
       <c r="I280" t="s">
-        <v>1469</v>
+        <v>1465</v>
       </c>
     </row>
     <row r="281" spans="1:9" x14ac:dyDescent="0.3">
@@ -12260,7 +12263,7 @@
         <v>1368</v>
       </c>
       <c r="I281" t="s">
-        <v>1468</v>
+        <v>1464</v>
       </c>
     </row>
     <row r="282" spans="1:9" x14ac:dyDescent="0.3">
@@ -12286,7 +12289,7 @@
         <v>1370</v>
       </c>
       <c r="I282" t="s">
-        <v>1468</v>
+        <v>1464</v>
       </c>
     </row>
     <row r="283" spans="1:9" x14ac:dyDescent="0.3">
@@ -12312,7 +12315,7 @@
         <v>1370</v>
       </c>
       <c r="I283" t="s">
-        <v>1468</v>
+        <v>1464</v>
       </c>
     </row>
     <row r="284" spans="1:9" x14ac:dyDescent="0.3">
@@ -12338,7 +12341,7 @@
         <v>1370</v>
       </c>
       <c r="I284" t="s">
-        <v>1468</v>
+        <v>1464</v>
       </c>
     </row>
     <row r="285" spans="1:9" x14ac:dyDescent="0.3">
@@ -12364,7 +12367,7 @@
         <v>1370</v>
       </c>
       <c r="I285" t="s">
-        <v>1468</v>
+        <v>1464</v>
       </c>
     </row>
     <row r="286" spans="1:9" x14ac:dyDescent="0.3">
@@ -12390,7 +12393,7 @@
         <v>1368</v>
       </c>
       <c r="I286" t="s">
-        <v>1468</v>
+        <v>1464</v>
       </c>
     </row>
     <row r="287" spans="1:9" x14ac:dyDescent="0.3">
@@ -12413,10 +12416,10 @@
         <v>1151</v>
       </c>
       <c r="H287" t="s">
-        <v>1461</v>
+        <v>1457</v>
       </c>
       <c r="I287" t="s">
-        <v>1469</v>
+        <v>1465</v>
       </c>
     </row>
     <row r="288" spans="1:9" x14ac:dyDescent="0.3">
@@ -12439,10 +12442,10 @@
         <v>1047</v>
       </c>
       <c r="H288" t="s">
-        <v>1441</v>
+        <v>1437</v>
       </c>
       <c r="I288" t="s">
-        <v>1467</v>
+        <v>1463</v>
       </c>
     </row>
     <row r="289" spans="1:9" x14ac:dyDescent="0.3">
@@ -12468,7 +12471,7 @@
         <v>1368</v>
       </c>
       <c r="I289" t="s">
-        <v>1468</v>
+        <v>1464</v>
       </c>
     </row>
     <row r="290" spans="1:9" x14ac:dyDescent="0.3">
@@ -12494,7 +12497,7 @@
         <v>1368</v>
       </c>
       <c r="I290" t="s">
-        <v>1468</v>
+        <v>1464</v>
       </c>
     </row>
     <row r="291" spans="1:9" x14ac:dyDescent="0.3">
@@ -12520,7 +12523,7 @@
         <v>1368</v>
       </c>
       <c r="I291" t="s">
-        <v>1468</v>
+        <v>1464</v>
       </c>
     </row>
     <row r="292" spans="1:9" x14ac:dyDescent="0.3">
@@ -12546,7 +12549,7 @@
         <v>1370</v>
       </c>
       <c r="I292" t="s">
-        <v>1468</v>
+        <v>1464</v>
       </c>
     </row>
     <row r="293" spans="1:9" x14ac:dyDescent="0.3">
@@ -12572,7 +12575,7 @@
         <v>1370</v>
       </c>
       <c r="I293" t="s">
-        <v>1468</v>
+        <v>1464</v>
       </c>
     </row>
     <row r="294" spans="1:9" x14ac:dyDescent="0.3">
@@ -12595,10 +12598,10 @@
         <v>1090</v>
       </c>
       <c r="H294" t="s">
-        <v>1461</v>
+        <v>1457</v>
       </c>
       <c r="I294" t="s">
-        <v>1469</v>
+        <v>1465</v>
       </c>
     </row>
     <row r="295" spans="1:9" x14ac:dyDescent="0.3">
@@ -12624,7 +12627,7 @@
         <v>1321</v>
       </c>
       <c r="I295" t="s">
-        <v>1468</v>
+        <v>1464</v>
       </c>
     </row>
     <row r="296" spans="1:9" x14ac:dyDescent="0.3">
@@ -12650,7 +12653,7 @@
         <v>1372</v>
       </c>
       <c r="I296" t="s">
-        <v>1465</v>
+        <v>1461</v>
       </c>
     </row>
     <row r="297" spans="1:9" x14ac:dyDescent="0.3">
@@ -12676,7 +12679,7 @@
         <v>1321</v>
       </c>
       <c r="I297" t="s">
-        <v>1468</v>
+        <v>1464</v>
       </c>
     </row>
     <row r="298" spans="1:9" x14ac:dyDescent="0.3">
@@ -12699,10 +12702,10 @@
         <v>1209</v>
       </c>
       <c r="H298" t="s">
-        <v>1442</v>
+        <v>1438</v>
       </c>
       <c r="I298" t="s">
-        <v>1465</v>
+        <v>1461</v>
       </c>
     </row>
     <row r="299" spans="1:9" x14ac:dyDescent="0.3">
@@ -12728,7 +12731,7 @@
         <v>1373</v>
       </c>
       <c r="I299" t="s">
-        <v>1469</v>
+        <v>1465</v>
       </c>
     </row>
     <row r="300" spans="1:9" x14ac:dyDescent="0.3">
@@ -12754,7 +12757,7 @@
         <v>1373</v>
       </c>
       <c r="I300" t="s">
-        <v>1469</v>
+        <v>1465</v>
       </c>
     </row>
     <row r="301" spans="1:9" x14ac:dyDescent="0.3">
@@ -12780,7 +12783,7 @@
         <v>1373</v>
       </c>
       <c r="I301" t="s">
-        <v>1469</v>
+        <v>1465</v>
       </c>
     </row>
     <row r="302" spans="1:9" x14ac:dyDescent="0.3">
@@ -12806,7 +12809,7 @@
         <v>1374</v>
       </c>
       <c r="I302" t="s">
-        <v>1468</v>
+        <v>1464</v>
       </c>
     </row>
     <row r="303" spans="1:9" x14ac:dyDescent="0.3">
@@ -12832,7 +12835,7 @@
         <v>1374</v>
       </c>
       <c r="I303" t="s">
-        <v>1468</v>
+        <v>1464</v>
       </c>
     </row>
     <row r="304" spans="1:9" x14ac:dyDescent="0.3">
@@ -12861,7 +12864,7 @@
         <v>1374</v>
       </c>
       <c r="I304" t="s">
-        <v>1468</v>
+        <v>1464</v>
       </c>
     </row>
     <row r="305" spans="1:9" x14ac:dyDescent="0.3">
@@ -12884,10 +12887,10 @@
         <v>1047</v>
       </c>
       <c r="H305" t="s">
-        <v>1443</v>
+        <v>1439</v>
       </c>
       <c r="I305" t="s">
-        <v>1469</v>
+        <v>1465</v>
       </c>
     </row>
     <row r="306" spans="1:9" x14ac:dyDescent="0.3">
@@ -12910,10 +12913,10 @@
         <v>983</v>
       </c>
       <c r="H306" t="s">
-        <v>1443</v>
+        <v>1439</v>
       </c>
       <c r="I306" t="s">
-        <v>1469</v>
+        <v>1465</v>
       </c>
     </row>
     <row r="307" spans="1:9" x14ac:dyDescent="0.3">
@@ -12939,7 +12942,7 @@
         <v>1321</v>
       </c>
       <c r="I307" t="s">
-        <v>1468</v>
+        <v>1464</v>
       </c>
     </row>
     <row r="308" spans="1:9" x14ac:dyDescent="0.3">
@@ -12965,7 +12968,7 @@
         <v>1374</v>
       </c>
       <c r="I308" t="s">
-        <v>1468</v>
+        <v>1464</v>
       </c>
     </row>
     <row r="309" spans="1:9" x14ac:dyDescent="0.3">
@@ -12991,7 +12994,7 @@
         <v>1374</v>
       </c>
       <c r="I309" t="s">
-        <v>1468</v>
+        <v>1464</v>
       </c>
     </row>
     <row r="310" spans="1:9" x14ac:dyDescent="0.3">
@@ -13014,10 +13017,10 @@
         <v>1216</v>
       </c>
       <c r="H310" t="s">
-        <v>1443</v>
+        <v>1439</v>
       </c>
       <c r="I310" t="s">
-        <v>1469</v>
+        <v>1465</v>
       </c>
     </row>
     <row r="311" spans="1:9" x14ac:dyDescent="0.3">
@@ -13043,7 +13046,7 @@
         <v>1321</v>
       </c>
       <c r="I311" t="s">
-        <v>1468</v>
+        <v>1464</v>
       </c>
     </row>
     <row r="312" spans="1:9" x14ac:dyDescent="0.3">
@@ -13069,7 +13072,7 @@
         <v>1321</v>
       </c>
       <c r="I312" t="s">
-        <v>1468</v>
+        <v>1464</v>
       </c>
     </row>
     <row r="313" spans="1:9" x14ac:dyDescent="0.3">
@@ -13095,7 +13098,7 @@
         <v>1374</v>
       </c>
       <c r="I313" t="s">
-        <v>1468</v>
+        <v>1464</v>
       </c>
     </row>
     <row r="314" spans="1:9" x14ac:dyDescent="0.3">
@@ -13121,7 +13124,7 @@
         <v>1375</v>
       </c>
       <c r="I314" t="s">
-        <v>1468</v>
+        <v>1464</v>
       </c>
     </row>
     <row r="315" spans="1:9" x14ac:dyDescent="0.3">
@@ -13150,7 +13153,7 @@
         <v>1375</v>
       </c>
       <c r="I315" t="s">
-        <v>1468</v>
+        <v>1464</v>
       </c>
     </row>
     <row r="316" spans="1:9" x14ac:dyDescent="0.3">
@@ -13179,7 +13182,7 @@
         <v>1375</v>
       </c>
       <c r="I316" t="s">
-        <v>1468</v>
+        <v>1464</v>
       </c>
     </row>
     <row r="317" spans="1:9" x14ac:dyDescent="0.3">
@@ -13205,7 +13208,7 @@
         <v>1375</v>
       </c>
       <c r="I317" t="s">
-        <v>1468</v>
+        <v>1464</v>
       </c>
     </row>
     <row r="318" spans="1:9" x14ac:dyDescent="0.3">
@@ -13231,7 +13234,7 @@
         <v>1375</v>
       </c>
       <c r="I318" t="s">
-        <v>1468</v>
+        <v>1464</v>
       </c>
     </row>
     <row r="319" spans="1:9" x14ac:dyDescent="0.3">
@@ -13257,7 +13260,7 @@
         <v>1375</v>
       </c>
       <c r="I319" t="s">
-        <v>1468</v>
+        <v>1464</v>
       </c>
     </row>
     <row r="320" spans="1:9" x14ac:dyDescent="0.3">
@@ -13283,7 +13286,7 @@
         <v>1375</v>
       </c>
       <c r="I320" t="s">
-        <v>1468</v>
+        <v>1464</v>
       </c>
     </row>
     <row r="321" spans="1:9" x14ac:dyDescent="0.3">
@@ -13309,7 +13312,7 @@
         <v>1376</v>
       </c>
       <c r="I321" t="s">
-        <v>1468</v>
+        <v>1464</v>
       </c>
     </row>
     <row r="322" spans="1:9" x14ac:dyDescent="0.3">
@@ -13335,7 +13338,7 @@
         <v>1376</v>
       </c>
       <c r="I322" t="s">
-        <v>1468</v>
+        <v>1464</v>
       </c>
     </row>
     <row r="323" spans="1:9" x14ac:dyDescent="0.3">
@@ -13361,7 +13364,7 @@
         <v>1376</v>
       </c>
       <c r="I323" t="s">
-        <v>1468</v>
+        <v>1464</v>
       </c>
     </row>
     <row r="324" spans="1:9" x14ac:dyDescent="0.3">
@@ -13387,7 +13390,7 @@
         <v>1376</v>
       </c>
       <c r="I324" t="s">
-        <v>1468</v>
+        <v>1464</v>
       </c>
     </row>
     <row r="325" spans="1:9" x14ac:dyDescent="0.3">
@@ -13413,7 +13416,7 @@
         <v>1376</v>
       </c>
       <c r="I325" t="s">
-        <v>1468</v>
+        <v>1464</v>
       </c>
     </row>
     <row r="326" spans="1:9" x14ac:dyDescent="0.3">
@@ -13439,7 +13442,7 @@
         <v>1377</v>
       </c>
       <c r="I326" t="s">
-        <v>1465</v>
+        <v>1461</v>
       </c>
     </row>
     <row r="327" spans="1:9" x14ac:dyDescent="0.3">
@@ -13465,7 +13468,7 @@
         <v>1377</v>
       </c>
       <c r="I327" t="s">
-        <v>1465</v>
+        <v>1461</v>
       </c>
     </row>
     <row r="328" spans="1:9" x14ac:dyDescent="0.3">
@@ -13488,10 +13491,10 @@
         <v>1111</v>
       </c>
       <c r="H328" t="s">
-        <v>1444</v>
+        <v>1440</v>
       </c>
       <c r="I328" t="s">
-        <v>1467</v>
+        <v>1463</v>
       </c>
     </row>
     <row r="329" spans="1:9" x14ac:dyDescent="0.3">
@@ -13517,7 +13520,7 @@
         <v>1377</v>
       </c>
       <c r="I329" t="s">
-        <v>1465</v>
+        <v>1461</v>
       </c>
     </row>
     <row r="330" spans="1:9" x14ac:dyDescent="0.3">
@@ -13543,7 +13546,7 @@
         <v>1376</v>
       </c>
       <c r="I330" t="s">
-        <v>1468</v>
+        <v>1464</v>
       </c>
     </row>
     <row r="331" spans="1:9" x14ac:dyDescent="0.3">
@@ -13569,7 +13572,7 @@
         <v>1376</v>
       </c>
       <c r="I331" t="s">
-        <v>1468</v>
+        <v>1464</v>
       </c>
     </row>
     <row r="332" spans="1:9" x14ac:dyDescent="0.3">
@@ -13615,7 +13618,7 @@
         <v>1378</v>
       </c>
       <c r="I333" t="s">
-        <v>1469</v>
+        <v>1465</v>
       </c>
     </row>
     <row r="334" spans="1:9" x14ac:dyDescent="0.3">
@@ -13641,7 +13644,7 @@
         <v>1378</v>
       </c>
       <c r="I334" t="s">
-        <v>1469</v>
+        <v>1465</v>
       </c>
     </row>
     <row r="335" spans="1:9" x14ac:dyDescent="0.3">
@@ -13667,7 +13670,7 @@
         <v>1369</v>
       </c>
       <c r="I335" t="s">
-        <v>1469</v>
+        <v>1465</v>
       </c>
     </row>
     <row r="336" spans="1:9" x14ac:dyDescent="0.3">
@@ -13690,10 +13693,10 @@
         <v>1227</v>
       </c>
       <c r="H336" t="s">
-        <v>1445</v>
+        <v>1441</v>
       </c>
       <c r="I336" t="s">
-        <v>1471</v>
+        <v>1467</v>
       </c>
     </row>
     <row r="337" spans="1:9" x14ac:dyDescent="0.3">
@@ -13716,10 +13719,10 @@
         <v>1228</v>
       </c>
       <c r="H337" t="s">
-        <v>1462</v>
+        <v>1458</v>
       </c>
       <c r="I337" t="s">
-        <v>1468</v>
+        <v>1464</v>
       </c>
     </row>
     <row r="338" spans="1:9" x14ac:dyDescent="0.3">
@@ -13742,10 +13745,10 @@
         <v>1229</v>
       </c>
       <c r="H338" t="s">
-        <v>1462</v>
+        <v>1458</v>
       </c>
       <c r="I338" t="s">
-        <v>1468</v>
+        <v>1464</v>
       </c>
     </row>
     <row r="339" spans="1:9" x14ac:dyDescent="0.3">
@@ -13771,7 +13774,7 @@
         <v>1379</v>
       </c>
       <c r="I339" t="s">
-        <v>1471</v>
+        <v>1467</v>
       </c>
     </row>
     <row r="340" spans="1:9" x14ac:dyDescent="0.3">
@@ -13797,7 +13800,7 @@
         <v>1380</v>
       </c>
       <c r="I340" t="s">
-        <v>1465</v>
+        <v>1461</v>
       </c>
     </row>
     <row r="341" spans="1:9" x14ac:dyDescent="0.3">
@@ -13820,10 +13823,10 @@
         <v>1147</v>
       </c>
       <c r="H341" t="s">
-        <v>1445</v>
+        <v>1441</v>
       </c>
       <c r="I341" t="s">
-        <v>1471</v>
+        <v>1467</v>
       </c>
     </row>
     <row r="342" spans="1:9" x14ac:dyDescent="0.3">
@@ -13846,10 +13849,10 @@
         <v>983</v>
       </c>
       <c r="H342" t="s">
-        <v>1446</v>
+        <v>1442</v>
       </c>
       <c r="I342" t="s">
-        <v>1465</v>
+        <v>1461</v>
       </c>
     </row>
     <row r="343" spans="1:9" x14ac:dyDescent="0.3">
@@ -13875,7 +13878,7 @@
         <v>1381</v>
       </c>
       <c r="I343" t="s">
-        <v>1468</v>
+        <v>1464</v>
       </c>
     </row>
     <row r="344" spans="1:9" x14ac:dyDescent="0.3">
@@ -13898,10 +13901,10 @@
         <v>1158</v>
       </c>
       <c r="H344" t="s">
-        <v>1446</v>
+        <v>1442</v>
       </c>
       <c r="I344" t="s">
-        <v>1465</v>
+        <v>1461</v>
       </c>
     </row>
     <row r="345" spans="1:9" x14ac:dyDescent="0.3">
@@ -13927,7 +13930,7 @@
         <v>1303</v>
       </c>
       <c r="I345" t="s">
-        <v>1468</v>
+        <v>1464</v>
       </c>
     </row>
     <row r="346" spans="1:9" x14ac:dyDescent="0.3">
@@ -13953,7 +13956,7 @@
         <v>1381</v>
       </c>
       <c r="I346" t="s">
-        <v>1468</v>
+        <v>1464</v>
       </c>
     </row>
     <row r="347" spans="1:9" x14ac:dyDescent="0.3">
@@ -13979,7 +13982,7 @@
         <v>1382</v>
       </c>
       <c r="I347" t="s">
-        <v>1465</v>
+        <v>1461</v>
       </c>
     </row>
     <row r="348" spans="1:9" x14ac:dyDescent="0.3">
@@ -14005,7 +14008,7 @@
         <v>1382</v>
       </c>
       <c r="I348" t="s">
-        <v>1465</v>
+        <v>1461</v>
       </c>
     </row>
     <row r="349" spans="1:9" x14ac:dyDescent="0.3">
@@ -14031,7 +14034,7 @@
         <v>1380</v>
       </c>
       <c r="I349" t="s">
-        <v>1465</v>
+        <v>1461</v>
       </c>
     </row>
     <row r="350" spans="1:9" x14ac:dyDescent="0.3">
@@ -14054,10 +14057,10 @@
         <v>997</v>
       </c>
       <c r="H350" t="s">
-        <v>1446</v>
+        <v>1442</v>
       </c>
       <c r="I350" t="s">
-        <v>1465</v>
+        <v>1461</v>
       </c>
     </row>
     <row r="351" spans="1:9" x14ac:dyDescent="0.3">
@@ -14080,10 +14083,10 @@
         <v>1188</v>
       </c>
       <c r="H351" t="s">
-        <v>1462</v>
+        <v>1458</v>
       </c>
       <c r="I351" t="s">
-        <v>1468</v>
+        <v>1464</v>
       </c>
     </row>
     <row r="352" spans="1:9" x14ac:dyDescent="0.3">
@@ -14109,7 +14112,7 @@
         <v>1378</v>
       </c>
       <c r="I352" t="s">
-        <v>1469</v>
+        <v>1465</v>
       </c>
     </row>
     <row r="353" spans="1:9" x14ac:dyDescent="0.3">
@@ -14132,10 +14135,10 @@
         <v>1113</v>
       </c>
       <c r="H353" t="s">
-        <v>1462</v>
+        <v>1458</v>
       </c>
       <c r="I353" t="s">
-        <v>1468</v>
+        <v>1464</v>
       </c>
     </row>
     <row r="354" spans="1:9" x14ac:dyDescent="0.3">
@@ -14161,7 +14164,7 @@
         <v>1381</v>
       </c>
       <c r="I354" t="s">
-        <v>1468</v>
+        <v>1464</v>
       </c>
     </row>
     <row r="355" spans="1:9" x14ac:dyDescent="0.3">
@@ -14187,7 +14190,7 @@
         <v>1381</v>
       </c>
       <c r="I355" t="s">
-        <v>1468</v>
+        <v>1464</v>
       </c>
     </row>
     <row r="356" spans="1:9" x14ac:dyDescent="0.3">
@@ -14210,10 +14213,10 @@
         <v>1220</v>
       </c>
       <c r="H356" t="s">
-        <v>1461</v>
+        <v>1457</v>
       </c>
       <c r="I356" t="s">
-        <v>1469</v>
+        <v>1465</v>
       </c>
     </row>
     <row r="357" spans="1:9" x14ac:dyDescent="0.3">
@@ -14236,10 +14239,10 @@
         <v>1234</v>
       </c>
       <c r="H357" t="s">
-        <v>1461</v>
+        <v>1457</v>
       </c>
       <c r="I357" t="s">
-        <v>1469</v>
+        <v>1465</v>
       </c>
     </row>
     <row r="358" spans="1:9" x14ac:dyDescent="0.3">
@@ -14262,10 +14265,10 @@
         <v>1175</v>
       </c>
       <c r="H358" t="s">
-        <v>1461</v>
+        <v>1457</v>
       </c>
       <c r="I358" t="s">
-        <v>1469</v>
+        <v>1465</v>
       </c>
     </row>
     <row r="359" spans="1:9" x14ac:dyDescent="0.3">
@@ -14291,7 +14294,7 @@
         <v>1383</v>
       </c>
       <c r="I359" t="s">
-        <v>1469</v>
+        <v>1465</v>
       </c>
     </row>
     <row r="360" spans="1:9" x14ac:dyDescent="0.3">
@@ -14317,7 +14320,7 @@
         <v>1309</v>
       </c>
       <c r="I360" t="s">
-        <v>1465</v>
+        <v>1461</v>
       </c>
     </row>
     <row r="361" spans="1:9" x14ac:dyDescent="0.3">
@@ -14343,7 +14346,7 @@
         <v>1384</v>
       </c>
       <c r="I361" t="s">
-        <v>1465</v>
+        <v>1461</v>
       </c>
     </row>
     <row r="362" spans="1:9" x14ac:dyDescent="0.3">
@@ -14369,7 +14372,7 @@
         <v>1385</v>
       </c>
       <c r="I362" t="s">
-        <v>1465</v>
+        <v>1461</v>
       </c>
     </row>
     <row r="363" spans="1:9" x14ac:dyDescent="0.3">
@@ -14395,7 +14398,7 @@
         <v>1383</v>
       </c>
       <c r="I363" t="s">
-        <v>1469</v>
+        <v>1465</v>
       </c>
     </row>
     <row r="364" spans="1:9" x14ac:dyDescent="0.3">
@@ -14421,7 +14424,7 @@
         <v>1309</v>
       </c>
       <c r="I364" t="s">
-        <v>1465</v>
+        <v>1461</v>
       </c>
     </row>
     <row r="365" spans="1:9" x14ac:dyDescent="0.3">
@@ -14447,7 +14450,7 @@
         <v>1385</v>
       </c>
       <c r="I365" t="s">
-        <v>1465</v>
+        <v>1461</v>
       </c>
     </row>
     <row r="366" spans="1:9" x14ac:dyDescent="0.3">
@@ -14473,7 +14476,7 @@
         <v>1383</v>
       </c>
       <c r="I366" t="s">
-        <v>1469</v>
+        <v>1465</v>
       </c>
     </row>
     <row r="367" spans="1:9" x14ac:dyDescent="0.3">
@@ -14499,7 +14502,7 @@
         <v>1386</v>
       </c>
       <c r="I367" t="s">
-        <v>1465</v>
+        <v>1461</v>
       </c>
     </row>
     <row r="368" spans="1:9" x14ac:dyDescent="0.3">
@@ -14525,7 +14528,7 @@
         <v>1386</v>
       </c>
       <c r="I368" t="s">
-        <v>1465</v>
+        <v>1461</v>
       </c>
     </row>
     <row r="369" spans="1:12" x14ac:dyDescent="0.3">
@@ -14551,7 +14554,7 @@
         <v>1386</v>
       </c>
       <c r="I369" t="s">
-        <v>1465</v>
+        <v>1461</v>
       </c>
     </row>
     <row r="370" spans="1:12" x14ac:dyDescent="0.3">
@@ -14577,7 +14580,7 @@
         <v>1351</v>
       </c>
       <c r="I370" t="s">
-        <v>1465</v>
+        <v>1461</v>
       </c>
     </row>
     <row r="371" spans="1:12" x14ac:dyDescent="0.3">
@@ -14603,7 +14606,7 @@
         <v>1351</v>
       </c>
       <c r="I371" t="s">
-        <v>1465</v>
+        <v>1461</v>
       </c>
     </row>
     <row r="372" spans="1:12" x14ac:dyDescent="0.3">
@@ -14629,7 +14632,7 @@
         <v>1326</v>
       </c>
       <c r="I372" t="s">
-        <v>1465</v>
+        <v>1461</v>
       </c>
     </row>
     <row r="373" spans="1:12" x14ac:dyDescent="0.3">
@@ -14652,10 +14655,10 @@
         <v>1239</v>
       </c>
       <c r="H373" t="s">
-        <v>1447</v>
+        <v>1443</v>
       </c>
       <c r="I373" t="s">
-        <v>1468</v>
+        <v>1464</v>
       </c>
     </row>
     <row r="374" spans="1:12" x14ac:dyDescent="0.3">
@@ -14678,10 +14681,10 @@
         <v>1074</v>
       </c>
       <c r="H374" t="s">
-        <v>1447</v>
+        <v>1443</v>
       </c>
       <c r="I374" t="s">
-        <v>1468</v>
+        <v>1464</v>
       </c>
     </row>
     <row r="375" spans="1:12" x14ac:dyDescent="0.3">
@@ -14704,10 +14707,10 @@
         <v>1240</v>
       </c>
       <c r="H375" t="s">
-        <v>1447</v>
+        <v>1443</v>
       </c>
       <c r="I375" t="s">
-        <v>1468</v>
+        <v>1464</v>
       </c>
     </row>
     <row r="376" spans="1:12" x14ac:dyDescent="0.3">
@@ -14730,16 +14733,16 @@
         <v>1001</v>
       </c>
       <c r="H376" t="s">
-        <v>1447</v>
+        <v>1443</v>
       </c>
       <c r="I376" t="s">
-        <v>1468</v>
+        <v>1464</v>
       </c>
       <c r="K376" t="s">
         <v>1387</v>
       </c>
       <c r="L376" t="s">
-        <v>1468</v>
+        <v>1464</v>
       </c>
     </row>
     <row r="377" spans="1:12" x14ac:dyDescent="0.3">
@@ -14765,7 +14768,7 @@
         <v>1387</v>
       </c>
       <c r="I377" t="s">
-        <v>1468</v>
+        <v>1464</v>
       </c>
     </row>
     <row r="378" spans="1:12" x14ac:dyDescent="0.3">
@@ -14791,7 +14794,7 @@
         <v>1387</v>
       </c>
       <c r="I378" t="s">
-        <v>1468</v>
+        <v>1464</v>
       </c>
     </row>
     <row r="379" spans="1:12" x14ac:dyDescent="0.3">
@@ -14817,7 +14820,7 @@
         <v>1387</v>
       </c>
       <c r="I379" t="s">
-        <v>1468</v>
+        <v>1464</v>
       </c>
     </row>
     <row r="380" spans="1:12" x14ac:dyDescent="0.3">
@@ -14843,7 +14846,7 @@
         <v>1388</v>
       </c>
       <c r="I380" t="s">
-        <v>1467</v>
+        <v>1463</v>
       </c>
     </row>
     <row r="381" spans="1:12" x14ac:dyDescent="0.3">
@@ -14869,7 +14872,7 @@
         <v>1389</v>
       </c>
       <c r="I381" t="s">
-        <v>1468</v>
+        <v>1464</v>
       </c>
     </row>
     <row r="382" spans="1:12" x14ac:dyDescent="0.3">
@@ -14895,7 +14898,7 @@
         <v>1389</v>
       </c>
       <c r="I382" t="s">
-        <v>1468</v>
+        <v>1464</v>
       </c>
     </row>
     <row r="383" spans="1:12" x14ac:dyDescent="0.3">
@@ -14924,7 +14927,7 @@
         <v>1336</v>
       </c>
       <c r="I383" t="s">
-        <v>1469</v>
+        <v>1465</v>
       </c>
     </row>
     <row r="384" spans="1:12" x14ac:dyDescent="0.3">
@@ -14953,7 +14956,7 @@
         <v>1336</v>
       </c>
       <c r="I384" t="s">
-        <v>1469</v>
+        <v>1465</v>
       </c>
     </row>
     <row r="385" spans="1:12" x14ac:dyDescent="0.3">
@@ -14982,7 +14985,7 @@
         <v>1336</v>
       </c>
       <c r="I385" t="s">
-        <v>1469</v>
+        <v>1465</v>
       </c>
     </row>
     <row r="386" spans="1:12" x14ac:dyDescent="0.3">
@@ -15011,7 +15014,7 @@
         <v>1336</v>
       </c>
       <c r="I386" t="s">
-        <v>1469</v>
+        <v>1465</v>
       </c>
     </row>
     <row r="387" spans="1:12" x14ac:dyDescent="0.3">
@@ -15034,10 +15037,10 @@
         <v>991</v>
       </c>
       <c r="H387" t="s">
-        <v>1463</v>
+        <v>1459</v>
       </c>
       <c r="I387" t="s">
-        <v>1468</v>
+        <v>1464</v>
       </c>
     </row>
     <row r="388" spans="1:12" x14ac:dyDescent="0.3">
@@ -15060,10 +15063,10 @@
         <v>992</v>
       </c>
       <c r="H388" t="s">
-        <v>1463</v>
+        <v>1459</v>
       </c>
       <c r="I388" t="s">
-        <v>1468</v>
+        <v>1464</v>
       </c>
     </row>
     <row r="389" spans="1:12" x14ac:dyDescent="0.3">
@@ -15086,10 +15089,10 @@
         <v>1247</v>
       </c>
       <c r="H389" t="s">
-        <v>1463</v>
+        <v>1459</v>
       </c>
       <c r="I389" t="s">
-        <v>1468</v>
+        <v>1464</v>
       </c>
     </row>
     <row r="390" spans="1:12" x14ac:dyDescent="0.3">
@@ -15112,10 +15115,10 @@
         <v>1248</v>
       </c>
       <c r="H390" t="s">
-        <v>1463</v>
+        <v>1459</v>
       </c>
       <c r="I390" t="s">
-        <v>1468</v>
+        <v>1464</v>
       </c>
     </row>
     <row r="391" spans="1:12" x14ac:dyDescent="0.3">
@@ -15138,10 +15141,10 @@
         <v>1064</v>
       </c>
       <c r="H391" t="s">
-        <v>1463</v>
+        <v>1459</v>
       </c>
       <c r="I391" t="s">
-        <v>1468</v>
+        <v>1464</v>
       </c>
     </row>
     <row r="392" spans="1:12" x14ac:dyDescent="0.3">
@@ -15164,16 +15167,16 @@
         <v>1249</v>
       </c>
       <c r="H392" t="s">
-        <v>1463</v>
+        <v>1459</v>
       </c>
       <c r="I392" t="s">
-        <v>1468</v>
+        <v>1464</v>
       </c>
       <c r="K392" t="s">
         <v>1390</v>
       </c>
       <c r="L392" t="s">
-        <v>1468</v>
+        <v>1464</v>
       </c>
     </row>
     <row r="393" spans="1:12" x14ac:dyDescent="0.3">
@@ -15196,10 +15199,10 @@
         <v>1250</v>
       </c>
       <c r="H393" t="s">
-        <v>1463</v>
+        <v>1459</v>
       </c>
       <c r="I393" t="s">
-        <v>1468</v>
+        <v>1464</v>
       </c>
     </row>
     <row r="394" spans="1:12" x14ac:dyDescent="0.3">
@@ -15225,7 +15228,7 @@
         <v>1390</v>
       </c>
       <c r="I394" t="s">
-        <v>1468</v>
+        <v>1464</v>
       </c>
     </row>
     <row r="395" spans="1:12" x14ac:dyDescent="0.3">
@@ -15251,7 +15254,7 @@
         <v>1390</v>
       </c>
       <c r="I395" t="s">
-        <v>1468</v>
+        <v>1464</v>
       </c>
     </row>
     <row r="396" spans="1:12" x14ac:dyDescent="0.3">
@@ -15277,7 +15280,7 @@
         <v>1390</v>
       </c>
       <c r="I396" t="s">
-        <v>1468</v>
+        <v>1464</v>
       </c>
     </row>
     <row r="397" spans="1:12" x14ac:dyDescent="0.3">
@@ -15303,7 +15306,7 @@
         <v>1390</v>
       </c>
       <c r="I397" t="s">
-        <v>1468</v>
+        <v>1464</v>
       </c>
     </row>
     <row r="398" spans="1:12" x14ac:dyDescent="0.3">
@@ -15329,7 +15332,7 @@
         <v>1391</v>
       </c>
       <c r="I398" t="s">
-        <v>1465</v>
+        <v>1461</v>
       </c>
     </row>
     <row r="399" spans="1:12" x14ac:dyDescent="0.3">
@@ -15355,7 +15358,7 @@
         <v>1391</v>
       </c>
       <c r="I399" t="s">
-        <v>1465</v>
+        <v>1461</v>
       </c>
     </row>
     <row r="400" spans="1:12" x14ac:dyDescent="0.3">
@@ -15381,7 +15384,7 @@
         <v>1392</v>
       </c>
       <c r="I400" t="s">
-        <v>1465</v>
+        <v>1461</v>
       </c>
     </row>
     <row r="401" spans="1:12" x14ac:dyDescent="0.3">
@@ -15407,7 +15410,7 @@
         <v>1393</v>
       </c>
       <c r="I401" t="s">
-        <v>1465</v>
+        <v>1461</v>
       </c>
     </row>
     <row r="402" spans="1:12" x14ac:dyDescent="0.3">
@@ -15433,7 +15436,7 @@
         <v>1394</v>
       </c>
       <c r="I402" t="s">
-        <v>1465</v>
+        <v>1461</v>
       </c>
     </row>
     <row r="403" spans="1:12" x14ac:dyDescent="0.3">
@@ -15459,7 +15462,7 @@
         <v>1394</v>
       </c>
       <c r="I403" t="s">
-        <v>1465</v>
+        <v>1461</v>
       </c>
     </row>
     <row r="404" spans="1:12" x14ac:dyDescent="0.3">
@@ -15485,7 +15488,7 @@
         <v>1395</v>
       </c>
       <c r="I404" t="s">
-        <v>1465</v>
+        <v>1461</v>
       </c>
     </row>
     <row r="405" spans="1:12" x14ac:dyDescent="0.3">
@@ -15511,7 +15514,7 @@
         <v>1396</v>
       </c>
       <c r="I405" t="s">
-        <v>1465</v>
+        <v>1461</v>
       </c>
     </row>
     <row r="406" spans="1:12" x14ac:dyDescent="0.3">
@@ -15540,7 +15543,7 @@
         <v>1397</v>
       </c>
       <c r="I406" t="s">
-        <v>1468</v>
+        <v>1464</v>
       </c>
     </row>
     <row r="407" spans="1:12" x14ac:dyDescent="0.3">
@@ -15566,7 +15569,7 @@
         <v>1397</v>
       </c>
       <c r="I407" t="s">
-        <v>1468</v>
+        <v>1464</v>
       </c>
     </row>
     <row r="408" spans="1:12" x14ac:dyDescent="0.3">
@@ -15592,7 +15595,7 @@
         <v>1397</v>
       </c>
       <c r="I408" t="s">
-        <v>1468</v>
+        <v>1464</v>
       </c>
     </row>
     <row r="409" spans="1:12" x14ac:dyDescent="0.3">
@@ -15618,7 +15621,7 @@
         <v>1397</v>
       </c>
       <c r="I409" t="s">
-        <v>1468</v>
+        <v>1464</v>
       </c>
     </row>
     <row r="410" spans="1:12" x14ac:dyDescent="0.3">
@@ -15644,7 +15647,7 @@
         <v>1397</v>
       </c>
       <c r="I410" t="s">
-        <v>1468</v>
+        <v>1464</v>
       </c>
     </row>
     <row r="411" spans="1:12" x14ac:dyDescent="0.3">
@@ -15670,13 +15673,13 @@
         <v>1397</v>
       </c>
       <c r="I411" t="s">
-        <v>1468</v>
+        <v>1464</v>
       </c>
       <c r="K411" t="s">
-        <v>1478</v>
+        <v>1474</v>
       </c>
       <c r="L411" t="s">
-        <v>1465</v>
+        <v>1461</v>
       </c>
     </row>
     <row r="412" spans="1:12" x14ac:dyDescent="0.3">
@@ -15702,13 +15705,13 @@
         <v>1397</v>
       </c>
       <c r="I412" t="s">
-        <v>1468</v>
+        <v>1464</v>
       </c>
       <c r="K412" t="s">
         <v>1371</v>
       </c>
       <c r="L412" t="s">
-        <v>1465</v>
+        <v>1461</v>
       </c>
     </row>
     <row r="413" spans="1:12" x14ac:dyDescent="0.3">
@@ -15734,7 +15737,7 @@
         <v>1398</v>
       </c>
       <c r="I413" t="s">
-        <v>1469</v>
+        <v>1465</v>
       </c>
     </row>
     <row r="414" spans="1:12" x14ac:dyDescent="0.3">
@@ -15760,7 +15763,7 @@
         <v>1398</v>
       </c>
       <c r="I414" t="s">
-        <v>1469</v>
+        <v>1465</v>
       </c>
     </row>
     <row r="415" spans="1:12" x14ac:dyDescent="0.3">
@@ -15786,7 +15789,7 @@
         <v>1398</v>
       </c>
       <c r="I415" t="s">
-        <v>1469</v>
+        <v>1465</v>
       </c>
     </row>
     <row r="416" spans="1:12" x14ac:dyDescent="0.3">
@@ -15812,7 +15815,7 @@
         <v>1398</v>
       </c>
       <c r="I416" t="s">
-        <v>1469</v>
+        <v>1465</v>
       </c>
     </row>
     <row r="417" spans="1:9" x14ac:dyDescent="0.3">
@@ -15838,7 +15841,7 @@
         <v>1398</v>
       </c>
       <c r="I417" t="s">
-        <v>1469</v>
+        <v>1465</v>
       </c>
     </row>
     <row r="418" spans="1:9" x14ac:dyDescent="0.3">
@@ -15864,7 +15867,7 @@
         <v>1398</v>
       </c>
       <c r="I418" t="s">
-        <v>1469</v>
+        <v>1465</v>
       </c>
     </row>
     <row r="419" spans="1:9" x14ac:dyDescent="0.3">
@@ -15890,7 +15893,7 @@
         <v>1399</v>
       </c>
       <c r="I419" t="s">
-        <v>1467</v>
+        <v>1463</v>
       </c>
     </row>
     <row r="420" spans="1:9" x14ac:dyDescent="0.3">
@@ -15913,10 +15916,10 @@
         <v>1069</v>
       </c>
       <c r="H420" t="s">
-        <v>1478</v>
+        <v>1474</v>
       </c>
       <c r="I420" t="s">
-        <v>1465</v>
+        <v>1461</v>
       </c>
     </row>
     <row r="421" spans="1:9" x14ac:dyDescent="0.3">
@@ -15939,10 +15942,10 @@
         <v>1069</v>
       </c>
       <c r="H421" t="s">
-        <v>1478</v>
+        <v>1474</v>
       </c>
       <c r="I421" t="s">
-        <v>1465</v>
+        <v>1461</v>
       </c>
     </row>
     <row r="422" spans="1:9" x14ac:dyDescent="0.3">
@@ -15968,7 +15971,7 @@
         <v>1371</v>
       </c>
       <c r="I422" t="s">
-        <v>1465</v>
+        <v>1461</v>
       </c>
     </row>
     <row r="423" spans="1:9" x14ac:dyDescent="0.3">
@@ -15994,7 +15997,7 @@
         <v>1371</v>
       </c>
       <c r="I423" t="s">
-        <v>1465</v>
+        <v>1461</v>
       </c>
     </row>
     <row r="424" spans="1:9" x14ac:dyDescent="0.3">
@@ -16020,7 +16023,7 @@
         <v>1400</v>
       </c>
       <c r="I424" t="s">
-        <v>1465</v>
+        <v>1461</v>
       </c>
     </row>
     <row r="425" spans="1:9" x14ac:dyDescent="0.3">
@@ -16049,7 +16052,7 @@
         <v>1401</v>
       </c>
       <c r="I425" t="s">
-        <v>1468</v>
+        <v>1464</v>
       </c>
     </row>
     <row r="426" spans="1:9" x14ac:dyDescent="0.3">
@@ -16078,7 +16081,7 @@
         <v>1401</v>
       </c>
       <c r="I426" t="s">
-        <v>1468</v>
+        <v>1464</v>
       </c>
     </row>
     <row r="427" spans="1:9" x14ac:dyDescent="0.3">
@@ -16107,7 +16110,7 @@
         <v>1401</v>
       </c>
       <c r="I427" t="s">
-        <v>1468</v>
+        <v>1464</v>
       </c>
     </row>
     <row r="428" spans="1:9" x14ac:dyDescent="0.3">
@@ -16136,7 +16139,7 @@
         <v>1401</v>
       </c>
       <c r="I428" t="s">
-        <v>1468</v>
+        <v>1464</v>
       </c>
     </row>
     <row r="429" spans="1:9" x14ac:dyDescent="0.3">
@@ -16165,7 +16168,7 @@
         <v>1401</v>
       </c>
       <c r="I429" t="s">
-        <v>1468</v>
+        <v>1464</v>
       </c>
     </row>
     <row r="430" spans="1:9" x14ac:dyDescent="0.3">
@@ -16194,7 +16197,7 @@
         <v>1401</v>
       </c>
       <c r="I430" t="s">
-        <v>1468</v>
+        <v>1464</v>
       </c>
     </row>
     <row r="431" spans="1:9" x14ac:dyDescent="0.3">
@@ -16223,7 +16226,7 @@
         <v>1401</v>
       </c>
       <c r="I431" t="s">
-        <v>1468</v>
+        <v>1464</v>
       </c>
     </row>
     <row r="432" spans="1:9" x14ac:dyDescent="0.3">
@@ -16252,7 +16255,7 @@
         <v>1402</v>
       </c>
       <c r="I432" t="s">
-        <v>1468</v>
+        <v>1464</v>
       </c>
     </row>
     <row r="433" spans="1:12" x14ac:dyDescent="0.3">
@@ -16281,7 +16284,7 @@
         <v>1402</v>
       </c>
       <c r="I433" t="s">
-        <v>1468</v>
+        <v>1464</v>
       </c>
     </row>
     <row r="434" spans="1:12" x14ac:dyDescent="0.3">
@@ -16310,7 +16313,7 @@
         <v>1402</v>
       </c>
       <c r="I434" t="s">
-        <v>1468</v>
+        <v>1464</v>
       </c>
     </row>
     <row r="435" spans="1:12" x14ac:dyDescent="0.3">
@@ -16339,7 +16342,7 @@
         <v>1402</v>
       </c>
       <c r="I435" t="s">
-        <v>1468</v>
+        <v>1464</v>
       </c>
     </row>
     <row r="436" spans="1:12" x14ac:dyDescent="0.3">
@@ -16368,7 +16371,7 @@
         <v>1402</v>
       </c>
       <c r="I436" t="s">
-        <v>1468</v>
+        <v>1464</v>
       </c>
     </row>
     <row r="437" spans="1:12" x14ac:dyDescent="0.3">
@@ -16397,7 +16400,7 @@
         <v>1402</v>
       </c>
       <c r="I437" t="s">
-        <v>1468</v>
+        <v>1464</v>
       </c>
     </row>
     <row r="438" spans="1:12" x14ac:dyDescent="0.3">
@@ -16426,7 +16429,7 @@
         <v>1402</v>
       </c>
       <c r="I438" t="s">
-        <v>1468</v>
+        <v>1464</v>
       </c>
     </row>
     <row r="439" spans="1:12" x14ac:dyDescent="0.3">
@@ -16455,7 +16458,7 @@
         <v>1403</v>
       </c>
       <c r="I439" t="s">
-        <v>1465</v>
+        <v>1461</v>
       </c>
     </row>
     <row r="440" spans="1:12" x14ac:dyDescent="0.3">
@@ -16484,7 +16487,7 @@
         <v>1403</v>
       </c>
       <c r="I440" t="s">
-        <v>1465</v>
+        <v>1461</v>
       </c>
     </row>
     <row r="441" spans="1:12" x14ac:dyDescent="0.3">
@@ -16510,7 +16513,7 @@
         <v>1324</v>
       </c>
       <c r="I441" t="s">
-        <v>1468</v>
+        <v>1464</v>
       </c>
     </row>
     <row r="442" spans="1:12" x14ac:dyDescent="0.3">
@@ -16536,7 +16539,7 @@
         <v>1324</v>
       </c>
       <c r="I442" t="s">
-        <v>1468</v>
+        <v>1464</v>
       </c>
     </row>
     <row r="443" spans="1:12" x14ac:dyDescent="0.3">
@@ -16562,7 +16565,7 @@
         <v>1324</v>
       </c>
       <c r="I443" t="s">
-        <v>1468</v>
+        <v>1464</v>
       </c>
     </row>
     <row r="444" spans="1:12" x14ac:dyDescent="0.3">
@@ -16588,7 +16591,7 @@
         <v>1324</v>
       </c>
       <c r="I444" t="s">
-        <v>1468</v>
+        <v>1464</v>
       </c>
     </row>
     <row r="445" spans="1:12" x14ac:dyDescent="0.3">
@@ -16614,13 +16617,13 @@
         <v>1324</v>
       </c>
       <c r="I445" t="s">
-        <v>1468</v>
+        <v>1464</v>
       </c>
       <c r="K445" t="s">
-        <v>1476</v>
+        <v>1472</v>
       </c>
       <c r="L445" t="s">
-        <v>1465</v>
+        <v>1461</v>
       </c>
     </row>
     <row r="446" spans="1:12" x14ac:dyDescent="0.3">
@@ -16646,13 +16649,13 @@
         <v>1324</v>
       </c>
       <c r="I446" t="s">
-        <v>1468</v>
+        <v>1464</v>
       </c>
       <c r="K446" t="s">
         <v>1404</v>
       </c>
       <c r="L446" t="s">
-        <v>1465</v>
+        <v>1461</v>
       </c>
     </row>
     <row r="447" spans="1:12" x14ac:dyDescent="0.3">
@@ -16675,10 +16678,10 @@
         <v>1114</v>
       </c>
       <c r="H447" t="s">
-        <v>1448</v>
+        <v>1444</v>
       </c>
       <c r="I447" t="s">
-        <v>1465</v>
+        <v>1476</v>
       </c>
     </row>
     <row r="448" spans="1:12" x14ac:dyDescent="0.3">
@@ -16704,7 +16707,7 @@
         <v>1404</v>
       </c>
       <c r="I448" t="s">
-        <v>1465</v>
+        <v>1461</v>
       </c>
     </row>
     <row r="449" spans="1:12" x14ac:dyDescent="0.3">
@@ -16727,10 +16730,10 @@
         <v>1277</v>
       </c>
       <c r="H449" t="s">
-        <v>1464</v>
+        <v>1460</v>
       </c>
       <c r="I449" t="s">
-        <v>1468</v>
+        <v>1464</v>
       </c>
     </row>
     <row r="450" spans="1:12" x14ac:dyDescent="0.3">
@@ -16753,10 +16756,10 @@
         <v>1278</v>
       </c>
       <c r="H450" t="s">
-        <v>1464</v>
+        <v>1460</v>
       </c>
       <c r="I450" t="s">
-        <v>1468</v>
+        <v>1464</v>
       </c>
     </row>
     <row r="451" spans="1:12" x14ac:dyDescent="0.3">
@@ -16779,10 +16782,10 @@
         <v>1279</v>
       </c>
       <c r="H451" t="s">
-        <v>1464</v>
+        <v>1460</v>
       </c>
       <c r="I451" t="s">
-        <v>1468</v>
+        <v>1464</v>
       </c>
     </row>
     <row r="452" spans="1:12" x14ac:dyDescent="0.3">
@@ -16805,10 +16808,10 @@
         <v>1280</v>
       </c>
       <c r="H452" t="s">
-        <v>1464</v>
+        <v>1460</v>
       </c>
       <c r="I452" t="s">
-        <v>1468</v>
+        <v>1464</v>
       </c>
     </row>
     <row r="453" spans="1:12" x14ac:dyDescent="0.3">
@@ -16831,10 +16834,10 @@
         <v>1281</v>
       </c>
       <c r="H453" t="s">
-        <v>1464</v>
+        <v>1460</v>
       </c>
       <c r="I453" t="s">
-        <v>1468</v>
+        <v>1464</v>
       </c>
     </row>
     <row r="454" spans="1:12" x14ac:dyDescent="0.3">
@@ -16857,10 +16860,10 @@
         <v>1282</v>
       </c>
       <c r="H454" t="s">
-        <v>1464</v>
+        <v>1460</v>
       </c>
       <c r="I454" t="s">
-        <v>1468</v>
+        <v>1464</v>
       </c>
     </row>
     <row r="455" spans="1:12" x14ac:dyDescent="0.3">
@@ -16883,10 +16886,10 @@
         <v>1283</v>
       </c>
       <c r="H455" t="s">
-        <v>1464</v>
+        <v>1460</v>
       </c>
       <c r="I455" t="s">
-        <v>1468</v>
+        <v>1464</v>
       </c>
     </row>
     <row r="456" spans="1:12" x14ac:dyDescent="0.3">
@@ -16912,10 +16915,10 @@
         <v>1405</v>
       </c>
       <c r="I456" t="s">
-        <v>1468</v>
+        <v>1464</v>
       </c>
       <c r="J456" t="s">
-        <v>1470</v>
+        <v>1466</v>
       </c>
     </row>
     <row r="457" spans="1:12" x14ac:dyDescent="0.3">
@@ -16941,10 +16944,10 @@
         <v>1405</v>
       </c>
       <c r="I457" t="s">
-        <v>1468</v>
+        <v>1464</v>
       </c>
       <c r="J457" t="s">
-        <v>1470</v>
+        <v>1466</v>
       </c>
     </row>
     <row r="458" spans="1:12" x14ac:dyDescent="0.3">
@@ -16970,10 +16973,10 @@
         <v>1405</v>
       </c>
       <c r="I458" t="s">
-        <v>1468</v>
+        <v>1464</v>
       </c>
       <c r="J458" t="s">
-        <v>1470</v>
+        <v>1466</v>
       </c>
     </row>
     <row r="459" spans="1:12" x14ac:dyDescent="0.3">
@@ -16999,16 +17002,16 @@
         <v>1405</v>
       </c>
       <c r="I459" t="s">
-        <v>1468</v>
+        <v>1464</v>
       </c>
       <c r="J459" t="s">
-        <v>1470</v>
+        <v>1466</v>
       </c>
       <c r="K459" t="s">
-        <v>1477</v>
+        <v>1473</v>
       </c>
       <c r="L459" t="s">
-        <v>1465</v>
+        <v>1461</v>
       </c>
     </row>
     <row r="460" spans="1:12" x14ac:dyDescent="0.3">
@@ -17034,10 +17037,10 @@
         <v>1405</v>
       </c>
       <c r="I460" t="s">
-        <v>1468</v>
+        <v>1464</v>
       </c>
       <c r="J460" t="s">
-        <v>1470</v>
+        <v>1466</v>
       </c>
     </row>
     <row r="461" spans="1:12" x14ac:dyDescent="0.3">
@@ -17063,10 +17066,10 @@
         <v>1405</v>
       </c>
       <c r="I461" t="s">
-        <v>1468</v>
+        <v>1464</v>
       </c>
       <c r="J461" t="s">
-        <v>1470</v>
+        <v>1466</v>
       </c>
     </row>
     <row r="462" spans="1:12" x14ac:dyDescent="0.3">
@@ -17092,7 +17095,7 @@
         <v>1406</v>
       </c>
       <c r="I462" t="s">
-        <v>1465</v>
+        <v>1461</v>
       </c>
     </row>
     <row r="463" spans="1:12" x14ac:dyDescent="0.3">
@@ -17118,7 +17121,7 @@
         <v>1406</v>
       </c>
       <c r="I463" t="s">
-        <v>1465</v>
+        <v>1461</v>
       </c>
     </row>
     <row r="464" spans="1:12" x14ac:dyDescent="0.3">
@@ -17144,7 +17147,7 @@
         <v>1407</v>
       </c>
       <c r="I464" t="s">
-        <v>1465</v>
+        <v>1461</v>
       </c>
     </row>
     <row r="465" spans="1:14" x14ac:dyDescent="0.3">
@@ -17173,7 +17176,7 @@
         <v>1408</v>
       </c>
       <c r="I465" t="s">
-        <v>1468</v>
+        <v>1464</v>
       </c>
     </row>
     <row r="466" spans="1:14" x14ac:dyDescent="0.3">
@@ -17199,13 +17202,13 @@
         <v>1408</v>
       </c>
       <c r="I466" t="s">
-        <v>1468</v>
+        <v>1464</v>
       </c>
       <c r="K466" t="s">
         <v>1411</v>
       </c>
       <c r="L466" t="s">
-        <v>1465</v>
+        <v>1461</v>
       </c>
     </row>
     <row r="467" spans="1:14" x14ac:dyDescent="0.3">
@@ -17231,19 +17234,19 @@
         <v>1408</v>
       </c>
       <c r="I467" t="s">
-        <v>1468</v>
+        <v>1464</v>
       </c>
       <c r="K467" t="s">
         <v>1409</v>
       </c>
       <c r="L467" t="s">
-        <v>1469</v>
+        <v>1465</v>
       </c>
       <c r="M467" t="s">
         <v>1411</v>
       </c>
       <c r="N467" t="s">
-        <v>1465</v>
+        <v>1461</v>
       </c>
     </row>
     <row r="468" spans="1:14" x14ac:dyDescent="0.3">
@@ -17269,7 +17272,7 @@
         <v>1408</v>
       </c>
       <c r="I468" t="s">
-        <v>1468</v>
+        <v>1464</v>
       </c>
     </row>
     <row r="469" spans="1:14" x14ac:dyDescent="0.3">
@@ -17295,7 +17298,7 @@
         <v>1408</v>
       </c>
       <c r="I469" t="s">
-        <v>1468</v>
+        <v>1464</v>
       </c>
     </row>
     <row r="470" spans="1:14" x14ac:dyDescent="0.3">
@@ -17321,7 +17324,7 @@
         <v>1409</v>
       </c>
       <c r="I470" t="s">
-        <v>1469</v>
+        <v>1465</v>
       </c>
     </row>
     <row r="471" spans="1:14" x14ac:dyDescent="0.3">
@@ -17347,7 +17350,7 @@
         <v>1409</v>
       </c>
       <c r="I471" t="s">
-        <v>1469</v>
+        <v>1465</v>
       </c>
     </row>
     <row r="472" spans="1:14" x14ac:dyDescent="0.3">
@@ -17373,7 +17376,7 @@
         <v>1409</v>
       </c>
       <c r="I472" t="s">
-        <v>1469</v>
+        <v>1465</v>
       </c>
     </row>
     <row r="473" spans="1:14" x14ac:dyDescent="0.3">
@@ -17399,7 +17402,7 @@
         <v>1410</v>
       </c>
       <c r="I473" t="s">
-        <v>1465</v>
+        <v>1461</v>
       </c>
     </row>
     <row r="474" spans="1:14" x14ac:dyDescent="0.3">
@@ -17425,7 +17428,7 @@
         <v>1411</v>
       </c>
       <c r="I474" t="s">
-        <v>1465</v>
+        <v>1461</v>
       </c>
     </row>
     <row r="475" spans="1:14" x14ac:dyDescent="0.3">
@@ -17451,7 +17454,7 @@
         <v>1411</v>
       </c>
       <c r="I475" t="s">
-        <v>1465</v>
+        <v>1461</v>
       </c>
     </row>
     <row r="476" spans="1:14" x14ac:dyDescent="0.3">
@@ -17474,10 +17477,10 @@
         <v>1047</v>
       </c>
       <c r="H476" t="s">
-        <v>1449</v>
+        <v>1445</v>
       </c>
       <c r="I476" t="s">
-        <v>1465</v>
+        <v>1461</v>
       </c>
     </row>
     <row r="477" spans="1:14" x14ac:dyDescent="0.3">
@@ -17500,10 +17503,10 @@
         <v>1069</v>
       </c>
       <c r="H477" t="s">
-        <v>1449</v>
+        <v>1445</v>
       </c>
       <c r="I477" t="s">
-        <v>1465</v>
+        <v>1461</v>
       </c>
     </row>
     <row r="478" spans="1:14" x14ac:dyDescent="0.3">
@@ -17529,7 +17532,7 @@
         <v>1412</v>
       </c>
       <c r="I478" t="s">
-        <v>1468</v>
+        <v>1464</v>
       </c>
     </row>
     <row r="479" spans="1:14" x14ac:dyDescent="0.3">
@@ -17555,7 +17558,7 @@
         <v>1412</v>
       </c>
       <c r="I479" t="s">
-        <v>1468</v>
+        <v>1464</v>
       </c>
     </row>
     <row r="480" spans="1:14" x14ac:dyDescent="0.3">
@@ -17581,7 +17584,7 @@
         <v>1412</v>
       </c>
       <c r="I480" t="s">
-        <v>1468</v>
+        <v>1464</v>
       </c>
     </row>
     <row r="481" spans="1:9" x14ac:dyDescent="0.3">
@@ -17607,7 +17610,7 @@
         <v>1412</v>
       </c>
       <c r="I481" t="s">
-        <v>1468</v>
+        <v>1464</v>
       </c>
     </row>
     <row r="482" spans="1:9" x14ac:dyDescent="0.3">
@@ -17633,7 +17636,7 @@
         <v>1412</v>
       </c>
       <c r="I482" t="s">
-        <v>1468</v>
+        <v>1464</v>
       </c>
     </row>
     <row r="483" spans="1:9" x14ac:dyDescent="0.3">
@@ -17659,7 +17662,7 @@
         <v>1412</v>
       </c>
       <c r="I483" t="s">
-        <v>1468</v>
+        <v>1464</v>
       </c>
     </row>
     <row r="484" spans="1:9" x14ac:dyDescent="0.3">
@@ -17685,7 +17688,7 @@
         <v>1412</v>
       </c>
       <c r="I484" t="s">
-        <v>1468</v>
+        <v>1464</v>
       </c>
     </row>
     <row r="485" spans="1:9" x14ac:dyDescent="0.3">
@@ -17711,7 +17714,7 @@
         <v>1413</v>
       </c>
       <c r="I485" t="s">
-        <v>1465</v>
+        <v>1461</v>
       </c>
     </row>
     <row r="486" spans="1:9" x14ac:dyDescent="0.3">
@@ -17737,7 +17740,7 @@
         <v>1414</v>
       </c>
       <c r="I486" t="s">
-        <v>1467</v>
+        <v>1463</v>
       </c>
     </row>
     <row r="487" spans="1:9" x14ac:dyDescent="0.3">
@@ -17763,7 +17766,7 @@
         <v>1415</v>
       </c>
       <c r="I487" t="s">
-        <v>1467</v>
+        <v>1463</v>
       </c>
     </row>
     <row r="488" spans="1:9" x14ac:dyDescent="0.3">
@@ -17789,7 +17792,7 @@
         <v>1367</v>
       </c>
       <c r="I488" t="s">
-        <v>1465</v>
+        <v>1461</v>
       </c>
     </row>
   </sheetData>
